--- a/VA_result_ENE.xlsx
+++ b/VA_result_ENE.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -392,6 +392,54 @@
     <t xml:space="preserve">2025-10-01</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-10-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">VA_CST</t>
   </si>
   <si>
@@ -458,76 +506,76 @@
     <t xml:space="preserve">var_controle</t>
   </si>
   <si>
-    <t xml:space="preserve">-8.73114913702011e-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.96089622982254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.08933025054284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.872077025269391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.719326310994802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.649678661400685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0954138820525259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112972687842557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.282833544857567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.648194992711069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.727919528115308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18990589948953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50101516168797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77195791769191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52211285839439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88634551584255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04808054014575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20053552254103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23736715473933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15790750388987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20817393960897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.3864723071456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.6461729076691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.790936976904</t>
+    <t xml:space="preserve">-1.30967237055302e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.87557693212875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.23959634180937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.670266891174833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.272481931126094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148253458144609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12988355645211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56970532462583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45491056708852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75378145315335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99210141395452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72149772051489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88392943853978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5998138698633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7067481646664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06722724734573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5613348354236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6118648718693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2844499065832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.679628688551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2514481564285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.9524362840457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.6659847723786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.2854553173529</t>
   </si>
   <si>
     <t xml:space="preserve">valaj_brut</t>
@@ -568,7 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
+        <fgColor rgb="FFB8F0F6"/>
       </patternFill>
     </fill>
   </fills>
@@ -1767,10 +1815,10 @@
         <v>73</v>
       </c>
       <c r="B61" t="n">
-        <v>975344.550156955</v>
+        <v>822071.056583391</v>
       </c>
       <c r="C61" t="n">
-        <v>97.5344550156955</v>
+        <v>82.2071056583391</v>
       </c>
     </row>
     <row r="62">
@@ -2218,10 +2266,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>1232247.0788674</v>
+        <v>1181727.78746917</v>
       </c>
       <c r="C102" t="n">
-        <v>123.22470788674</v>
+        <v>118.172778746917</v>
       </c>
     </row>
     <row r="103">
@@ -2229,10 +2277,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>1262647.65015367</v>
+        <v>1185497.5685409</v>
       </c>
       <c r="C103" t="n">
-        <v>126.264765015367</v>
+        <v>118.54975685409</v>
       </c>
     </row>
     <row r="104">
@@ -2240,10 +2288,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>1271628.91514711</v>
+        <v>1163714.67941637</v>
       </c>
       <c r="C104" t="n">
-        <v>127.162891514711</v>
+        <v>116.371467941637</v>
       </c>
     </row>
     <row r="105">
@@ -2251,10 +2299,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>1310577.53944974</v>
+        <v>1159446.94226452</v>
       </c>
       <c r="C105" t="n">
-        <v>131.057753944974</v>
+        <v>115.944694226452</v>
       </c>
     </row>
     <row r="106">
@@ -2262,10 +2310,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="n">
-        <v>1296104.94168743</v>
+        <v>1151126.58643271</v>
       </c>
       <c r="C106" t="n">
-        <v>129.610494168743</v>
+        <v>115.112658643271</v>
       </c>
     </row>
     <row r="107">
@@ -2273,10 +2321,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="n">
-        <v>1301697.16671571</v>
+        <v>1152541.54180378</v>
       </c>
       <c r="C107" t="n">
-        <v>130.169716671571</v>
+        <v>115.254154180378</v>
       </c>
     </row>
     <row r="108">
@@ -2284,10 +2332,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="n">
-        <v>1310681.16488577</v>
+        <v>1144365.51901158</v>
       </c>
       <c r="C108" t="n">
-        <v>131.068116488577</v>
+        <v>114.436551901158</v>
       </c>
     </row>
     <row r="109">
@@ -2295,10 +2343,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>1346778.6394503</v>
+        <v>1142763.66004672</v>
       </c>
       <c r="C109" t="n">
-        <v>134.67786394503</v>
+        <v>114.276366004672</v>
       </c>
     </row>
     <row r="110">
@@ -2306,10 +2354,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="n">
-        <v>1334542.35766088</v>
+        <v>1139640.68501199</v>
       </c>
       <c r="C110" t="n">
-        <v>133.454235766088</v>
+        <v>113.964068501199</v>
       </c>
     </row>
     <row r="111">
@@ -2317,10 +2365,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="n">
-        <v>1340460.06446548</v>
+        <v>1140171.77651678</v>
       </c>
       <c r="C111" t="n">
-        <v>134.046006446548</v>
+        <v>114.017177651678</v>
       </c>
     </row>
     <row r="112">
@@ -2328,10 +2376,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="n">
-        <v>1349446.53552343</v>
+        <v>1137102.97566505</v>
       </c>
       <c r="C112" t="n">
-        <v>134.944653552343</v>
+        <v>113.710297566505</v>
       </c>
     </row>
     <row r="113">
@@ -2339,10 +2387,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="n">
-        <v>1382964.38402469</v>
+        <v>1136501.7314806</v>
       </c>
       <c r="C113" t="n">
-        <v>138.296438402469</v>
+        <v>113.65017314806</v>
       </c>
     </row>
     <row r="114">
@@ -2350,10 +2398,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="n">
-        <v>1372751.44702572</v>
+        <v>1135329.54927293</v>
       </c>
       <c r="C114" t="n">
-        <v>137.275144702572</v>
+        <v>113.532954927293</v>
       </c>
     </row>
     <row r="115">
@@ -2361,10 +2409,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="n">
-        <v>1378963.6389856</v>
+        <v>1135528.8899675</v>
       </c>
       <c r="C115" t="n">
-        <v>137.89636389856</v>
+        <v>113.55288899675</v>
       </c>
     </row>
     <row r="116">
@@ -2372,10 +2420,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="n">
-        <v>1387952.34743078</v>
+        <v>1134377.04158022</v>
       </c>
       <c r="C116" t="n">
-        <v>138.795234743078</v>
+        <v>113.437704158022</v>
       </c>
     </row>
     <row r="117">
@@ -2383,10 +2431,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="n">
-        <v>1419136.23551695</v>
+        <v>1134151.36967198</v>
       </c>
       <c r="C117" t="n">
-        <v>141.913623551695</v>
+        <v>113.415136967198</v>
       </c>
     </row>
     <row r="118">
@@ -2394,10 +2442,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="n">
-        <v>1410753.95402044</v>
+        <v>1133711.40101622</v>
       </c>
       <c r="C118" t="n">
-        <v>141.075395402044</v>
+        <v>113.371140101622</v>
       </c>
     </row>
     <row r="119">
@@ -2405,10 +2453,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="n">
-        <v>1417232.58641717</v>
+        <v>1133786.22185624</v>
       </c>
       <c r="C119" t="n">
-        <v>141.723258641717</v>
+        <v>113.378622185624</v>
       </c>
     </row>
     <row r="120">
@@ -2416,10 +2464,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="n">
-        <v>1426223.31917639</v>
+        <v>1133353.88532761</v>
       </c>
       <c r="C120" t="n">
-        <v>142.622331917639</v>
+        <v>113.335388532761</v>
       </c>
     </row>
     <row r="121">
@@ -2427,10 +2475,186 @@
         <v>123</v>
       </c>
       <c r="B121" t="n">
-        <v>1455295.51700758</v>
+        <v>1133269.18128974</v>
       </c>
       <c r="C121" t="n">
-        <v>145.529551700758</v>
+        <v>113.326918128974</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1133104.04278416</v>
+      </c>
+      <c r="C122" t="n">
+        <v>113.310404278416</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1133132.12615224</v>
+      </c>
+      <c r="C123" t="n">
+        <v>113.313212615224</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1132969.85230088</v>
+      </c>
+      <c r="C124" t="n">
+        <v>113.296985230088</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1132938.05935826</v>
+      </c>
+      <c r="C125" t="n">
+        <v>113.293805935826</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1132876.07601997</v>
+      </c>
+      <c r="C126" t="n">
+        <v>113.287607601997</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1132886.61687413</v>
+      </c>
+      <c r="C127" t="n">
+        <v>113.288661687413</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1132825.70875952</v>
+      </c>
+      <c r="C128" t="n">
+        <v>113.282570875952</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1132813.775548</v>
+      </c>
+      <c r="C129" t="n">
+        <v>113.2813775548</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1132790.51062737</v>
+      </c>
+      <c r="C130" t="n">
+        <v>113.279051062737</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1132794.46704763</v>
+      </c>
+      <c r="C131" t="n">
+        <v>113.279446704763</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1132771.60570309</v>
+      </c>
+      <c r="C132" t="n">
+        <v>113.277160570309</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1132767.1266733</v>
+      </c>
+      <c r="C133" t="n">
+        <v>113.27671266733</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1132758.39438254</v>
+      </c>
+      <c r="C134" t="n">
+        <v>113.275839438254</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1132759.87939135</v>
+      </c>
+      <c r="C135" t="n">
+        <v>113.275987939135</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1132751.29857946</v>
+      </c>
+      <c r="C136" t="n">
+        <v>113.275129857946</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1132749.6174136</v>
+      </c>
+      <c r="C137" t="n">
+        <v>113.27496174136</v>
       </c>
     </row>
   </sheetData>
@@ -2452,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
@@ -2492,13 +2716,13 @@
         <v>47.6641645764148</v>
       </c>
       <c r="D3" t="n">
-        <v>23.3495936169226</v>
+        <v>23.3495936169225</v>
       </c>
       <c r="E3" t="n">
         <v>22.6854178133797</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4">
@@ -2506,19 +2730,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>107513.167210475</v>
+        <v>107510.252529773</v>
       </c>
       <c r="C4" t="n">
         <v>47.9192759905859</v>
       </c>
       <c r="D4" t="n">
-        <v>4.97089107032973</v>
+        <v>4.96804531070383</v>
       </c>
       <c r="E4" t="n">
         <v>0.535226865797966</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -2526,19 +2750,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>127632.502400482</v>
+        <v>127629.352134391</v>
       </c>
       <c r="C5" t="n">
         <v>57.1198216438075</v>
       </c>
       <c r="D5" t="n">
-        <v>18.7133685222199</v>
+        <v>18.7136567268746</v>
       </c>
       <c r="E5" t="n">
         <v>19.2000932047243</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -2546,19 +2770,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>119428.081805179</v>
+        <v>119428.283615313</v>
       </c>
       <c r="C6" t="n">
         <v>56.4514912133363</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.42815931756868</v>
+        <v>-6.4256915685365</v>
       </c>
       <c r="E6" t="n">
         <v>-1.17004992529369</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -2566,19 +2790,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>130312.634064836</v>
+        <v>130313.080909216</v>
       </c>
       <c r="C7" t="n">
         <v>58.6314085482715</v>
       </c>
       <c r="D7" t="n">
-        <v>9.1138969119611</v>
+        <v>9.11408668399107</v>
       </c>
       <c r="E7" t="n">
         <v>3.86157617466143</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -2586,19 +2810,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>133426.477459465</v>
+        <v>133427.275391585</v>
       </c>
       <c r="C8" t="n">
         <v>61.7934463750931</v>
       </c>
       <c r="D8" t="n">
-        <v>2.38951765266315</v>
+        <v>2.38977887763916</v>
       </c>
       <c r="E8" t="n">
         <v>5.39307839452343</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -2606,19 +2830,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>115948.411919695</v>
+        <v>115950.637217134</v>
       </c>
       <c r="C9" t="n">
         <v>59.8141143128873</v>
       </c>
       <c r="D9" t="n">
-        <v>-13.0993981648657</v>
+        <v>-13.0982500565649</v>
       </c>
       <c r="E9" t="n">
         <v>-3.20314236916178</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
@@ -2626,19 +2850,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>133884.143231606</v>
+        <v>133886.599964243</v>
       </c>
       <c r="C10" t="n">
         <v>63.6679518509542</v>
       </c>
       <c r="D10" t="n">
-        <v>15.4687166602445</v>
+        <v>15.468619386301</v>
       </c>
       <c r="E10" t="n">
         <v>6.44302366145151</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -2646,19 +2870,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>135485.6536435</v>
+        <v>135488.825720522</v>
       </c>
       <c r="C11" t="n">
         <v>65.675659854104</v>
       </c>
       <c r="D11" t="n">
-        <v>1.19619125404815</v>
+        <v>1.19670359595891</v>
       </c>
       <c r="E11" t="n">
         <v>3.15340441270944</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
@@ -2666,19 +2890,19 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>133079.500805667</v>
+        <v>133083.606392128</v>
       </c>
       <c r="C12" t="n">
         <v>65.6455742845469</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.77594658410382</v>
+        <v>-1.77521601180276</v>
       </c>
       <c r="E12" t="n">
         <v>-0.0458093144764193</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -2686,19 +2910,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>140421.666347602</v>
+        <v>140425.930529488</v>
       </c>
       <c r="C13" t="n">
         <v>69.0875478545522</v>
       </c>
       <c r="D13" t="n">
-        <v>5.51712735431451</v>
+        <v>5.51707632247811</v>
       </c>
       <c r="E13" t="n">
         <v>5.24326827439379</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
@@ -2706,19 +2930,19 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>145233.672772221</v>
+        <v>145239.204364042</v>
       </c>
       <c r="C14" t="n">
         <v>71.3828801927589</v>
       </c>
       <c r="D14" t="n">
-        <v>3.4268261798766</v>
+        <v>3.42762466761297</v>
       </c>
       <c r="E14" t="n">
         <v>3.32235317287428</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -2726,19 +2950,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>162881.106886076</v>
+        <v>162887.489800353</v>
       </c>
       <c r="C15" t="n">
         <v>80.4184774998403</v>
       </c>
       <c r="D15" t="n">
-        <v>12.1510623376805</v>
+        <v>12.1511857033283</v>
       </c>
       <c r="E15" t="n">
         <v>12.6579332224787</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
@@ -2746,19 +2970,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>181431.856938753</v>
+        <v>181441.684794705</v>
       </c>
       <c r="C16" t="n">
-        <v>87.1333351987627</v>
+        <v>83.3014978594236</v>
       </c>
       <c r="D16" t="n">
-        <v>11.3891355525057</v>
+        <v>11.3908041784508</v>
       </c>
       <c r="E16" t="n">
-        <v>8.34989408862621</v>
+        <v>3.58502230981554</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -2766,19 +2990,19 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>165056.437926386</v>
+        <v>165065.622561693</v>
       </c>
       <c r="C17" t="n">
         <v>71.8299703800848</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.02565805623345</v>
+        <v>-9.02552368356883</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.5631574113041</v>
+        <v>-13.7710938868083</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -2786,19 +3010,19 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>192393.496316694</v>
+        <v>192398.677198426</v>
       </c>
       <c r="C18" t="n">
         <v>81.9933532265316</v>
       </c>
       <c r="D18" t="n">
-        <v>16.5622490911259</v>
+        <v>16.5589019764047</v>
       </c>
       <c r="E18" t="n">
         <v>14.149223217924</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
@@ -2806,19 +3030,19 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>224136.713285639</v>
+        <v>224145.226539934</v>
       </c>
       <c r="C19" t="n">
         <v>88.1099699808831</v>
       </c>
       <c r="D19" t="n">
-        <v>16.499111236428</v>
+        <v>16.5003989652004</v>
       </c>
       <c r="E19" t="n">
         <v>7.45989341044806</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
@@ -2826,19 +3050,19 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>227863.479141652</v>
+        <v>227872.890471002</v>
       </c>
       <c r="C20" t="n">
         <v>93.6685794113347</v>
       </c>
       <c r="D20" t="n">
-        <v>1.6627199539883</v>
+        <v>1.66305746886106</v>
       </c>
       <c r="E20" t="n">
         <v>6.30871788023264</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21">
@@ -2846,19 +3070,19 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>239392.237367155</v>
+        <v>239404.284449907</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>5.05950241299324</v>
+        <v>5.06045012860896</v>
       </c>
       <c r="E21" t="n">
         <v>6.75938572833654</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
@@ -2866,19 +3090,19 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>265675.157907504</v>
+        <v>265689.679628689</v>
       </c>
       <c r="C22" t="n">
         <v>114.204720762983</v>
       </c>
       <c r="D22" t="n">
-        <v>10.9790195494264</v>
+        <v>10.9795007383345</v>
       </c>
       <c r="E22" t="n">
         <v>14.2047207629833</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23">
@@ -2886,19 +3110,19 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>671014.016654045</v>
+        <v>671034.059928262</v>
       </c>
       <c r="C23" t="n">
         <v>113.731009645385</v>
       </c>
       <c r="D23" t="n">
-        <v>152.569348951949</v>
+        <v>152.563088211051</v>
       </c>
       <c r="E23" t="n">
         <v>-0.414791187643959</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24">
@@ -2906,19 +3130,19 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>741736.506558039</v>
+        <v>741726.940594063</v>
       </c>
       <c r="C24" t="n">
         <v>115.01305405392</v>
       </c>
       <c r="D24" t="n">
-        <v>10.5396442024633</v>
+        <v>10.5349169121695</v>
       </c>
       <c r="E24" t="n">
         <v>1.1272602015338</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25">
@@ -2926,19 +3150,19 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>795797.428958157</v>
+        <v>795783.409146292</v>
       </c>
       <c r="C25" t="n">
         <v>123.509648717351</v>
       </c>
       <c r="D25" t="n">
-        <v>7.28842680953943</v>
+        <v>7.28792033749439</v>
       </c>
       <c r="E25" t="n">
         <v>7.38750460399697</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
@@ -2946,19 +3170,19 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>840675.221374949</v>
+        <v>840661.726856608</v>
       </c>
       <c r="C26" t="n">
         <v>123.89294468663</v>
       </c>
       <c r="D26" t="n">
-        <v>5.6393487568243</v>
+        <v>5.639514118353</v>
       </c>
       <c r="E26" t="n">
         <v>0.310336862957694</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
@@ -2966,19 +3190,19 @@
         <v>104</v>
       </c>
       <c r="B27" t="n">
-        <v>808613.666079172</v>
+        <v>740453.543711417</v>
       </c>
       <c r="C27" t="n">
-        <v>126.927529590448</v>
+        <v>117.259674442274</v>
       </c>
       <c r="D27" t="n">
-        <v>-3.8137861662366</v>
+        <v>-11.9201552710016</v>
       </c>
       <c r="E27" t="n">
-        <v>2.44936054389002</v>
+        <v>-5.35403388880153</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
@@ -2986,19 +3210,19 @@
         <v>108</v>
       </c>
       <c r="B28" t="n">
-        <v>834832.133842536</v>
+        <v>680821.743376983</v>
       </c>
       <c r="C28" t="n">
-        <v>131.38154781848</v>
+        <v>114.76993268237</v>
       </c>
       <c r="D28" t="n">
-        <v>3.24239731075697</v>
+        <v>-8.0534154831021</v>
       </c>
       <c r="E28" t="n">
-        <v>3.50910337765444</v>
+        <v>-2.12327193619314</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
@@ -3006,19 +3230,19 @@
         <v>112</v>
       </c>
       <c r="B29" t="n">
-        <v>857223.024104184</v>
+        <v>641414.302184526</v>
       </c>
       <c r="C29" t="n">
-        <v>135.185333541862</v>
+        <v>113.835429216861</v>
       </c>
       <c r="D29" t="n">
-        <v>2.6820829426615</v>
+        <v>-5.78821719132968</v>
       </c>
       <c r="E29" t="n">
-        <v>2.89522066571892</v>
+        <v>-0.814240667105415</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30">
@@ -3026,19 +3250,19 @@
         <v>116</v>
       </c>
       <c r="B30" t="n">
-        <v>879501.909216367</v>
+        <v>613454.013065966</v>
       </c>
       <c r="C30" t="n">
-        <v>138.970091723976</v>
+        <v>113.484671262316</v>
       </c>
       <c r="D30" t="n">
-        <v>2.5989601872237</v>
+        <v>-4.35916209278988</v>
       </c>
       <c r="E30" t="n">
-        <v>2.79968106225226</v>
+        <v>-0.308127229771904</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
@@ -3046,19 +3270,99 @@
         <v>120</v>
       </c>
       <c r="B31" t="n">
-        <v>901679.455770662</v>
+        <v>592773.036303338</v>
       </c>
       <c r="C31" t="n">
-        <v>142.73763441554</v>
+        <v>113.353017237245</v>
       </c>
       <c r="D31" t="n">
-        <v>2.52160300300606</v>
+        <v>-3.37123505953888</v>
       </c>
       <c r="E31" t="n">
-        <v>2.71104569682992</v>
+        <v>-0.116010403524958</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="n">
+        <v>577131.437426331</v>
+      </c>
+      <c r="C32" t="n">
+        <v>113.303602014889</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-2.63871632464104</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.0435940952972502</v>
+      </c>
+      <c r="F32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="n">
+        <v>565165.918302383</v>
+      </c>
+      <c r="C33" t="n">
+        <v>113.285054430041</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-2.07327453470695</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.0163698104191812</v>
+      </c>
+      <c r="F33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="n">
+        <v>555960.575492408</v>
+      </c>
+      <c r="C34" t="n">
+        <v>113.278092751285</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-1.62878590372633</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.00614527555357069</v>
+      </c>
+      <c r="F34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="n">
+        <v>548858.980850911</v>
+      </c>
+      <c r="C35" t="n">
+        <v>113.275479744174</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-1.2773557972536</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.00230671884341449</v>
+      </c>
+      <c r="F35" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3080,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -3103,16 +3407,16 @@
         <v>102421.886786159</v>
       </c>
       <c r="C2" t="n">
-        <v>111418.998382487</v>
+        <v>88239.048391688</v>
       </c>
       <c r="D2" t="n">
-        <v>-8997.11159632818</v>
+        <v>14182.8383944709</v>
       </c>
       <c r="E2" t="n">
         <v>47.6641645764148</v>
       </c>
       <c r="F2" t="n">
-        <v>-15617.4243598121</v>
+        <v>22393.3138253895</v>
       </c>
     </row>
     <row r="3">
@@ -3123,16 +3427,16 @@
         <v>107515.128106705</v>
       </c>
       <c r="C3" t="n">
-        <v>106772.514380672</v>
+        <v>99083.6424852162</v>
       </c>
       <c r="D3" t="n">
-        <v>742.613726032929</v>
+        <v>8431.48562148885</v>
       </c>
       <c r="E3" t="n">
         <v>47.9192759905859</v>
       </c>
       <c r="F3" t="n">
-        <v>-12025.8900476515</v>
+        <v>25757.702908449</v>
       </c>
     </row>
     <row r="4">
@@ -3143,16 +3447,16 @@
         <v>127634.591730732</v>
       </c>
       <c r="C4" t="n">
-        <v>163868.246332681</v>
+        <v>164037.112559825</v>
       </c>
       <c r="D4" t="n">
-        <v>-36233.6546019487</v>
+        <v>-36402.5208290928</v>
       </c>
       <c r="E4" t="n">
         <v>57.1198216438075</v>
       </c>
       <c r="F4" t="n">
-        <v>-46065.2100801856</v>
+        <v>-16473.5675197421</v>
       </c>
     </row>
     <row r="5">
@@ -3163,16 +3467,16 @@
         <v>119428.953882205</v>
       </c>
       <c r="C5" t="n">
-        <v>132098.755676672</v>
+        <v>126837.265312314</v>
       </c>
       <c r="D5" t="n">
-        <v>-12669.8017944679</v>
+        <v>-7408.31143010919</v>
       </c>
       <c r="E5" t="n">
         <v>56.4514912133363</v>
       </c>
       <c r="F5" t="n">
-        <v>-50336.7374357869</v>
+        <v>-20150.0291106937</v>
       </c>
     </row>
     <row r="6">
@@ -3183,16 +3487,16 @@
         <v>130313.353391147</v>
       </c>
       <c r="C6" t="n">
-        <v>141437.777832248</v>
+        <v>138766.082497832</v>
       </c>
       <c r="D6" t="n">
-        <v>-11124.4244411007</v>
+        <v>-8452.72910668478</v>
       </c>
       <c r="E6" t="n">
         <v>58.6314085482715</v>
       </c>
       <c r="F6" t="n">
-        <v>-52284.3672196516</v>
+        <v>-24038.6062413248</v>
       </c>
     </row>
     <row r="7">
@@ -3203,16 +3507,16 @@
         <v>133427.127138127</v>
       </c>
       <c r="C7" t="n">
-        <v>158458.376437037</v>
+        <v>157186.489277423</v>
       </c>
       <c r="D7" t="n">
-        <v>-25031.2492989104</v>
+        <v>-23759.3621392961</v>
       </c>
       <c r="E7" t="n">
         <v>61.7934463750931</v>
       </c>
       <c r="F7" t="n">
-        <v>-67783.8506675566</v>
+        <v>-42353.4941231444</v>
       </c>
     </row>
     <row r="8">
@@ -3223,16 +3527,16 @@
         <v>115948.507333577</v>
       </c>
       <c r="C8" t="n">
-        <v>134132.509453976</v>
+        <v>129604.209089906</v>
       </c>
       <c r="D8" t="n">
-        <v>-18184.0021203988</v>
+        <v>-13655.701756329</v>
       </c>
       <c r="E8" t="n">
         <v>59.8141143128873</v>
       </c>
       <c r="F8" t="n">
-        <v>-73611.1814092702</v>
+        <v>-46418.4739477201</v>
       </c>
     </row>
     <row r="9">
@@ -3243,16 +3547,16 @@
         <v>133884.030258918</v>
       </c>
       <c r="C9" t="n">
-        <v>152052.775638424</v>
+        <v>152576.372499949</v>
       </c>
       <c r="D9" t="n">
-        <v>-18168.7453795056</v>
+        <v>-18692.3422410305</v>
       </c>
       <c r="E9" t="n">
         <v>63.6679518509542</v>
       </c>
       <c r="F9" t="n">
-        <v>-78361.1775105777</v>
+        <v>-54599.8367456007</v>
       </c>
     </row>
     <row r="10">
@@ -3263,16 +3567,16 @@
         <v>135485.370809955</v>
       </c>
       <c r="C10" t="n">
-        <v>159986.827867922</v>
+        <v>159853.101241337</v>
       </c>
       <c r="D10" t="n">
-        <v>-24501.4570579668</v>
+        <v>-24367.7304313817</v>
       </c>
       <c r="E10" t="n">
         <v>65.675659854104</v>
       </c>
       <c r="F10" t="n">
-        <v>-88578.1602945334</v>
+        <v>-66604.4357200165</v>
       </c>
     </row>
     <row r="11">
@@ -3283,16 +3587,16 @@
         <v>133078.852610675</v>
       </c>
       <c r="C11" t="n">
-        <v>151454.874417558</v>
+        <v>150362.298791719</v>
       </c>
       <c r="D11" t="n">
-        <v>-18376.0218068837</v>
+        <v>-17283.4461810441</v>
       </c>
       <c r="E11" t="n">
         <v>65.6455742845469</v>
       </c>
       <c r="F11" t="n">
-        <v>-90807.5805352537</v>
+        <v>-68807.0684741327</v>
       </c>
     </row>
     <row r="12">
@@ -3303,16 +3607,16 @@
         <v>140420.938428074</v>
       </c>
       <c r="C12" t="n">
-        <v>169892.875947871</v>
+        <v>171984.057539969</v>
       </c>
       <c r="D12" t="n">
-        <v>-29471.9375197968</v>
+        <v>-31563.1191118953</v>
       </c>
       <c r="E12" t="n">
         <v>69.0875478545522</v>
       </c>
       <c r="F12" t="n">
-        <v>-103726.586717789</v>
+        <v>-84790.7273209119</v>
       </c>
     </row>
     <row r="13">
@@ -3323,16 +3627,16 @@
         <v>145232.482866321</v>
       </c>
       <c r="C13" t="n">
-        <v>172839.879400761</v>
+        <v>175174.014045315</v>
       </c>
       <c r="D13" t="n">
-        <v>-27607.39653444</v>
+        <v>-29941.5311789937</v>
       </c>
       <c r="E13" t="n">
         <v>71.3828801927589</v>
       </c>
       <c r="F13" t="n">
-        <v>-112426.459124837</v>
+        <v>-95534.3098909062</v>
       </c>
     </row>
     <row r="14">
@@ -3343,16 +3647,16 @@
         <v>162879.605870914</v>
       </c>
       <c r="C14" t="n">
-        <v>218913.448027426</v>
+        <v>228095.539619859</v>
       </c>
       <c r="D14" t="n">
-        <v>-56033.8421565115</v>
+        <v>-65215.9337489446</v>
       </c>
       <c r="E14" t="n">
         <v>80.4184774998403</v>
       </c>
       <c r="F14" t="n">
-        <v>-147967.155430795</v>
+        <v>-139120.0904478</v>
       </c>
     </row>
     <row r="15">
@@ -3363,16 +3667,16 @@
         <v>181429.084980835</v>
       </c>
       <c r="C15" t="n">
-        <v>229377.172694212</v>
+        <v>213914.803240521</v>
       </c>
       <c r="D15" t="n">
-        <v>-47948.0877133764</v>
+        <v>-32485.7182596862</v>
       </c>
       <c r="E15" t="n">
-        <v>87.1333351987627</v>
+        <v>83.3014978594236</v>
       </c>
       <c r="F15" t="n">
-        <v>-168944.519522092</v>
+        <v>-140108.412951261</v>
       </c>
     </row>
     <row r="16">
@@ -3383,16 +3687,16 @@
         <v>165052.915813528</v>
       </c>
       <c r="C16" t="n">
-        <v>122140.224719334</v>
+        <v>135409.382592387</v>
       </c>
       <c r="D16" t="n">
-        <v>42912.6910941938</v>
+        <v>29643.5332211412</v>
       </c>
       <c r="E16" t="n">
         <v>71.8299703800848</v>
       </c>
       <c r="F16" t="n">
-        <v>-95237.8114698289</v>
+        <v>-78743.7408689492</v>
       </c>
     </row>
     <row r="17">
@@ -3403,16 +3707,16 @@
         <v>192392.609971178</v>
       </c>
       <c r="C17" t="n">
-        <v>242239.793272579</v>
+        <v>251757.645886359</v>
       </c>
       <c r="D17" t="n">
-        <v>-49847.1833014003</v>
+        <v>-59365.0359151803</v>
       </c>
       <c r="E17" t="n">
         <v>81.9933532265316</v>
       </c>
       <c r="F17" t="n">
-        <v>-127724.618211806</v>
+        <v>-120279.785696171</v>
       </c>
     </row>
     <row r="18">
@@ -3423,16 +3727,16 @@
         <v>224134.665205098</v>
       </c>
       <c r="C18" t="n">
-        <v>251679.281092912</v>
+        <v>261076.215693014</v>
       </c>
       <c r="D18" t="n">
-        <v>-27544.6158878135</v>
+        <v>-36941.550487916</v>
       </c>
       <c r="E18" t="n">
         <v>88.1099699808831</v>
       </c>
       <c r="F18" t="n">
-        <v>-131987.875705509</v>
+        <v>-129989.135511947</v>
       </c>
     </row>
     <row r="19">
@@ -3443,16 +3747,16 @@
         <v>227861.27860613</v>
       </c>
       <c r="C19" t="n">
-        <v>280913.653032355</v>
+        <v>291234.806015207</v>
       </c>
       <c r="D19" t="n">
-        <v>-53052.3744262254</v>
+        <v>-63373.5274090775</v>
       </c>
       <c r="E19" t="n">
         <v>93.6685794113347</v>
       </c>
       <c r="F19" t="n">
-        <v>-160981.878768104</v>
+        <v>-163932.394242563</v>
       </c>
     </row>
     <row r="20">
@@ -3463,16 +3767,16 @@
         <v>239389</v>
       </c>
       <c r="C20" t="n">
-        <v>294473.790407191</v>
+        <v>307882.949606281</v>
       </c>
       <c r="D20" t="n">
-        <v>-55084.7904071907</v>
+        <v>-68493.9496062806</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>-186723.907541732</v>
+        <v>-195311.771642163</v>
       </c>
     </row>
     <row r="21">
@@ -3483,16 +3787,16 @@
         <v>265671</v>
       </c>
       <c r="C21" t="n">
-        <v>357039.189683159</v>
+        <v>379870.733989696</v>
       </c>
       <c r="D21" t="n">
-        <v>-91368.1896831585</v>
+        <v>-114199.733989696</v>
       </c>
       <c r="E21" t="n">
         <v>114.204720762983</v>
       </c>
       <c r="F21" t="n">
-        <v>-244057.643792647</v>
+        <v>-265293.058621092</v>
       </c>
     </row>
     <row r="22">
@@ -3503,16 +3807,16 @@
         <v>671007.808480106</v>
       </c>
       <c r="C22" t="n">
-        <v>307366.499287344</v>
+        <v>322522.012075883</v>
       </c>
       <c r="D22" t="n">
-        <v>363641.309192762</v>
+        <v>348485.796404222</v>
       </c>
       <c r="E22" t="n">
         <v>113.731009645385</v>
       </c>
       <c r="F22" t="n">
-        <v>164067.653425051</v>
+        <v>143254.019882576</v>
       </c>
     </row>
     <row r="23">
@@ -3523,16 +3827,16 @@
         <v>741744.893030347</v>
       </c>
       <c r="C23" t="n">
-        <v>648654.400946426</v>
+        <v>647267.676189021</v>
       </c>
       <c r="D23" t="n">
-        <v>93090.4920839203</v>
+        <v>94477.2168413253</v>
       </c>
       <c r="E23" t="n">
         <v>115.01305405392</v>
       </c>
       <c r="F23" t="n">
-        <v>227258.015381112</v>
+        <v>205302.879519579</v>
       </c>
     </row>
     <row r="24">
@@ -3543,16 +3847,16 @@
         <v>795808.075131065</v>
       </c>
       <c r="C24" t="n">
-        <v>750342.804792765</v>
+        <v>752849.659610334</v>
       </c>
       <c r="D24" t="n">
-        <v>45465.2703382998</v>
+        <v>42958.4155207305</v>
       </c>
       <c r="E24" t="n">
         <v>123.509648717351</v>
       </c>
       <c r="F24" t="n">
-        <v>231306.203856629</v>
+        <v>201785.899075961</v>
       </c>
     </row>
     <row r="25">
@@ -3563,16 +3867,16 @@
         <v>840686.012311925</v>
       </c>
       <c r="C25" t="n">
-        <v>755909.440568081</v>
+        <v>752726.416853394</v>
       </c>
       <c r="D25" t="n">
-        <v>84776.5717438445</v>
+        <v>87959.5954585309</v>
       </c>
       <c r="E25" t="n">
         <v>123.89294468663</v>
       </c>
       <c r="F25" t="n">
-        <v>273927.878826631</v>
+        <v>244066.296290759</v>
       </c>
     </row>
   </sheetData>
@@ -3594,34 +3898,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -3632,31 +3936,31 @@
         <v>11.1469028155255</v>
       </c>
       <c r="C2" t="n">
-        <v>-8096.19982470883</v>
+        <v>10614.6369062025</v>
       </c>
       <c r="D2" t="n">
-        <v>23327.2359122515</v>
+        <v>16847.4256580987</v>
       </c>
       <c r="E2" t="n">
-        <v>111418.998382487</v>
+        <v>88239.048391688</v>
       </c>
       <c r="F2" t="n">
         <v>102421.886786159</v>
       </c>
       <c r="G2" t="n">
-        <v>-8997.11159632821</v>
+        <v>14182.8383944709</v>
       </c>
       <c r="H2" t="n">
-        <v>-3446.39037918244</v>
+        <v>3145.57743218826</v>
       </c>
       <c r="I2" t="n">
-        <v>19880.845533069</v>
+        <v>19993.003090287</v>
       </c>
       <c r="J2" t="n">
         <v>102421.886786159</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3">
@@ -3667,31 +3971,31 @@
         <v>11.6813206587827</v>
       </c>
       <c r="C3" t="n">
-        <v>-8096.19982470883</v>
+        <v>10614.6369062025</v>
       </c>
       <c r="D3" t="n">
-        <v>26473.073283868</v>
+        <v>20469.0961626102</v>
       </c>
       <c r="E3" t="n">
-        <v>111418.998382487</v>
+        <v>88239.048391688</v>
       </c>
       <c r="F3" t="n">
         <v>102421.886786159</v>
       </c>
       <c r="G3" t="n">
-        <v>-8997.11159632821</v>
+        <v>14182.8383944709</v>
       </c>
       <c r="H3" t="n">
-        <v>-2967.54538714229</v>
+        <v>3305.63029876004</v>
       </c>
       <c r="I3" t="n">
-        <v>23505.5278967257</v>
+        <v>23774.7264613703</v>
       </c>
       <c r="J3" t="n">
         <v>102421.886786159</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
@@ -3702,31 +4006,31 @@
         <v>11.8182562487431</v>
       </c>
       <c r="C4" t="n">
-        <v>-8096.19982470883</v>
+        <v>10614.6369062025</v>
       </c>
       <c r="D4" t="n">
-        <v>27279.1412358217</v>
+        <v>21397.0883571726</v>
       </c>
       <c r="E4" t="n">
-        <v>111418.998382487</v>
+        <v>88239.048391688</v>
       </c>
       <c r="F4" t="n">
         <v>102421.886786159</v>
       </c>
       <c r="G4" t="n">
-        <v>-8997.11159632821</v>
+        <v>14182.8383944709</v>
       </c>
       <c r="H4" t="n">
-        <v>-2009.855403062</v>
+        <v>3625.73603190357</v>
       </c>
       <c r="I4" t="n">
-        <v>25269.2858327597</v>
+        <v>25022.8243890762</v>
       </c>
       <c r="J4" t="n">
         <v>102421.886786159</v>
       </c>
       <c r="K4" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -3737,31 +4041,31 @@
         <v>13.0176848533636</v>
       </c>
       <c r="C5" t="n">
-        <v>-8096.19982470883</v>
+        <v>10614.6369062025</v>
       </c>
       <c r="D5" t="n">
-        <v>34339.547950546</v>
+        <v>29525.4382138065</v>
       </c>
       <c r="E5" t="n">
-        <v>111418.998382487</v>
+        <v>88239.048391688</v>
       </c>
       <c r="F5" t="n">
         <v>102421.886786159</v>
       </c>
       <c r="G5" t="n">
-        <v>-8997.11159632821</v>
+        <v>14182.8383944709</v>
       </c>
       <c r="H5" t="n">
-        <v>-573.32042694157</v>
+        <v>4105.89463161887</v>
       </c>
       <c r="I5" t="n">
-        <v>33766.2275236044</v>
+        <v>33631.3328454254</v>
       </c>
       <c r="J5" t="n">
         <v>102421.886786159</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
@@ -3772,31 +4076,31 @@
         <v>12.3892763792865</v>
       </c>
       <c r="C6" t="n">
-        <v>-15617.4243598121</v>
+        <v>22393.3138253895</v>
       </c>
       <c r="D6" t="n">
-        <v>29102.8990865778</v>
+        <v>27544.5237066737</v>
       </c>
       <c r="E6" t="n">
-        <v>106770.553484442</v>
+        <v>99078.7669082842</v>
       </c>
       <c r="F6" t="n">
         <v>107515.128106705</v>
       </c>
       <c r="G6" t="n">
-        <v>744.574622262619</v>
+        <v>8436.36119842083</v>
       </c>
       <c r="H6" t="n">
-        <v>1342.059541219</v>
+        <v>4746.10609790593</v>
       </c>
       <c r="I6" t="n">
-        <v>30444.9586277968</v>
+        <v>32290.6298045796</v>
       </c>
       <c r="J6" t="n">
-        <v>107513.167210475</v>
+        <v>107510.252529773</v>
       </c>
       <c r="K6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
@@ -3807,31 +4111,31 @@
         <v>12.2749895402599</v>
       </c>
       <c r="C7" t="n">
-        <v>-15617.4243598121</v>
+        <v>22393.3138253895</v>
       </c>
       <c r="D7" t="n">
-        <v>28430.1524449192</v>
+        <v>26770.0187398603</v>
       </c>
       <c r="E7" t="n">
-        <v>106770.553484442</v>
+        <v>99078.7669082842</v>
       </c>
       <c r="F7" t="n">
         <v>107515.128106705</v>
       </c>
       <c r="G7" t="n">
-        <v>744.574622262619</v>
+        <v>8436.36119842083</v>
       </c>
       <c r="H7" t="n">
-        <v>1645.64908459891</v>
+        <v>3946.89680740725</v>
       </c>
       <c r="I7" t="n">
-        <v>30075.8015295181</v>
+        <v>30716.9155472675</v>
       </c>
       <c r="J7" t="n">
-        <v>107513.167210475</v>
+        <v>107510.252529773</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
@@ -3842,31 +4146,31 @@
         <v>11.7356560380167</v>
       </c>
       <c r="C8" t="n">
-        <v>-15617.4243598121</v>
+        <v>22393.3138253895</v>
       </c>
       <c r="D8" t="n">
-        <v>25255.3791686737</v>
+        <v>23115.0355430711</v>
       </c>
       <c r="E8" t="n">
-        <v>106770.553484442</v>
+        <v>99078.7669082842</v>
       </c>
       <c r="F8" t="n">
         <v>107515.128106705</v>
       </c>
       <c r="G8" t="n">
-        <v>744.574622262619</v>
+        <v>8436.36119842083</v>
       </c>
       <c r="H8" t="n">
-        <v>337.448203198154</v>
+        <v>1708.26676012283</v>
       </c>
       <c r="I8" t="n">
-        <v>25592.8273718718</v>
+        <v>24823.3023031939</v>
       </c>
       <c r="J8" t="n">
-        <v>107513.167210475</v>
+        <v>107510.252529773</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
@@ -3877,31 +4181,31 @@
         <v>11.5193540330228</v>
       </c>
       <c r="C9" t="n">
-        <v>-15617.4243598121</v>
+        <v>22393.3138253895</v>
       </c>
       <c r="D9" t="n">
-        <v>23982.1227842717</v>
+        <v>21649.1889186792</v>
       </c>
       <c r="E9" t="n">
-        <v>106770.553484442</v>
+        <v>99078.7669082842</v>
       </c>
       <c r="F9" t="n">
         <v>107515.128106705</v>
       </c>
       <c r="G9" t="n">
-        <v>744.574622262619</v>
+        <v>8436.36119842083</v>
       </c>
       <c r="H9" t="n">
-        <v>-2582.54310298326</v>
+        <v>-1969.78404394732</v>
       </c>
       <c r="I9" t="n">
-        <v>21399.5796812884</v>
+        <v>19679.4048747319</v>
       </c>
       <c r="J9" t="n">
-        <v>107513.167210475</v>
+        <v>107510.252529773</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
@@ -3912,31 +4216,31 @@
         <v>13.2313468461927</v>
       </c>
       <c r="C10" t="n">
-        <v>-12025.8900476515</v>
+        <v>25757.702908449</v>
       </c>
       <c r="D10" t="n">
-        <v>34793.9309576068</v>
+        <v>33901.7034376216</v>
       </c>
       <c r="E10" t="n">
-        <v>163866.157002431</v>
+        <v>164031.872963484</v>
       </c>
       <c r="F10" t="n">
         <v>127634.591730732</v>
       </c>
       <c r="G10" t="n">
-        <v>-36231.5652716986</v>
+        <v>-36397.2812327514</v>
       </c>
       <c r="H10" t="n">
-        <v>-7114.32483394533</v>
+        <v>-7087.25560480321</v>
       </c>
       <c r="I10" t="n">
-        <v>27679.6061236615</v>
+        <v>26814.4478328184</v>
       </c>
       <c r="J10" t="n">
-        <v>127632.502400482</v>
+        <v>127629.352134391</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -3947,31 +4251,31 @@
         <v>14.1226585458536</v>
       </c>
       <c r="C11" t="n">
-        <v>-12025.8900476515</v>
+        <v>25757.702908449</v>
       </c>
       <c r="D11" t="n">
-        <v>40040.6151578634</v>
+        <v>39941.9907029457</v>
       </c>
       <c r="E11" t="n">
-        <v>163866.157002431</v>
+        <v>164031.872963484</v>
       </c>
       <c r="F11" t="n">
         <v>127634.591730732</v>
       </c>
       <c r="G11" t="n">
-        <v>-36231.5652716986</v>
+        <v>-36397.2812327514</v>
       </c>
       <c r="H11" t="n">
-        <v>-9704.67305294695</v>
+        <v>-9939.59407013361</v>
       </c>
       <c r="I11" t="n">
-        <v>30335.9421049164</v>
+        <v>30002.3966328121</v>
       </c>
       <c r="J11" t="n">
-        <v>127632.502400482</v>
+        <v>127629.352134391</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -3982,31 +4286,31 @@
         <v>14.2539598031749</v>
       </c>
       <c r="C12" t="n">
-        <v>-12025.8900476515</v>
+        <v>25757.702908449</v>
       </c>
       <c r="D12" t="n">
-        <v>40813.5167505647</v>
+        <v>40831.799860416</v>
       </c>
       <c r="E12" t="n">
-        <v>163866.157002431</v>
+        <v>164031.872963484</v>
       </c>
       <c r="F12" t="n">
         <v>127634.591730732</v>
       </c>
       <c r="G12" t="n">
-        <v>-36231.5652716986</v>
+        <v>-36397.2812327514</v>
       </c>
       <c r="H12" t="n">
-        <v>-10353.5877599881</v>
+        <v>-10526.7994399385</v>
       </c>
       <c r="I12" t="n">
-        <v>30459.9289905766</v>
+        <v>30305.0004204775</v>
       </c>
       <c r="J12" t="n">
-        <v>127632.502400482</v>
+        <v>127629.352134391</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -4017,31 +4321,31 @@
         <v>15.5118564485863</v>
       </c>
       <c r="C13" t="n">
-        <v>-12025.8900476515</v>
+        <v>25757.702908449</v>
       </c>
       <c r="D13" t="n">
-        <v>48218.0941363961</v>
+        <v>49356.3789625006</v>
       </c>
       <c r="E13" t="n">
-        <v>163866.157002431</v>
+        <v>164031.872963484</v>
       </c>
       <c r="F13" t="n">
         <v>127634.591730732</v>
       </c>
       <c r="G13" t="n">
-        <v>-36231.5652716986</v>
+        <v>-36397.2812327514</v>
       </c>
       <c r="H13" t="n">
-        <v>-9061.06895506875</v>
+        <v>-8848.87171421791</v>
       </c>
       <c r="I13" t="n">
-        <v>39157.0251813274</v>
+        <v>40507.5072482827</v>
       </c>
       <c r="J13" t="n">
-        <v>127632.502400482</v>
+        <v>127629.352134391</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -4052,31 +4356,31 @@
         <v>16.1184436592147</v>
       </c>
       <c r="C14" t="n">
-        <v>-46065.2100801856</v>
+        <v>-16473.5675197421</v>
       </c>
       <c r="D14" t="n">
-        <v>44830.2139705427</v>
+        <v>45300.6051565649</v>
       </c>
       <c r="E14" t="n">
-        <v>132097.883599648</v>
+        <v>126836.595045423</v>
       </c>
       <c r="F14" t="n">
         <v>119428.953882205</v>
       </c>
       <c r="G14" t="n">
-        <v>-12668.929717443</v>
+        <v>-7407.64116321842</v>
       </c>
       <c r="H14" t="n">
-        <v>-5827.11663818894</v>
+        <v>-4905.81089297182</v>
       </c>
       <c r="I14" t="n">
-        <v>39003.0973323537</v>
+        <v>40394.7942635931</v>
       </c>
       <c r="J14" t="n">
-        <v>119428.081805179</v>
+        <v>119428.283615313</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
@@ -4087,31 +4391,31 @@
         <v>16.415677221503</v>
       </c>
       <c r="C15" t="n">
-        <v>-46065.2100801856</v>
+        <v>-16473.5675197421</v>
       </c>
       <c r="D15" t="n">
-        <v>46579.871958469</v>
+        <v>47314.9129478795</v>
       </c>
       <c r="E15" t="n">
-        <v>132097.883599648</v>
+        <v>126836.595045423</v>
       </c>
       <c r="F15" t="n">
         <v>119428.953882205</v>
       </c>
       <c r="G15" t="n">
-        <v>-12668.929717443</v>
+        <v>-7407.64116321842</v>
       </c>
       <c r="H15" t="n">
-        <v>-3469.66923560827</v>
+        <v>-2107.09335029561</v>
       </c>
       <c r="I15" t="n">
-        <v>43110.2027228608</v>
+        <v>45207.8195975839</v>
       </c>
       <c r="J15" t="n">
-        <v>119428.081805179</v>
+        <v>119428.283615313</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
@@ -4122,31 +4426,31 @@
         <v>12.2234703618602</v>
       </c>
       <c r="C16" t="n">
-        <v>-46065.2100801856</v>
+        <v>-16473.5675197421</v>
       </c>
       <c r="D16" t="n">
-        <v>21902.5503177197</v>
+        <v>18904.9484903966</v>
       </c>
       <c r="E16" t="n">
-        <v>132097.883599648</v>
+        <v>126836.595045423</v>
       </c>
       <c r="F16" t="n">
         <v>119428.953882205</v>
       </c>
       <c r="G16" t="n">
-        <v>-12668.929717443</v>
+        <v>-7407.64116321842</v>
       </c>
       <c r="H16" t="n">
-        <v>-1988.72674732674</v>
+        <v>-452.719086189293</v>
       </c>
       <c r="I16" t="n">
-        <v>19913.8235703929</v>
+        <v>18452.2294042073</v>
       </c>
       <c r="J16" t="n">
-        <v>119428.081805179</v>
+        <v>119428.283615313</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
@@ -4157,31 +4461,31 @@
         <v>11.6938999707585</v>
       </c>
       <c r="C17" t="n">
-        <v>-46065.2100801856</v>
+        <v>-16473.5675197421</v>
       </c>
       <c r="D17" t="n">
-        <v>18785.2473529162</v>
+        <v>15316.128450582</v>
       </c>
       <c r="E17" t="n">
-        <v>132097.883599648</v>
+        <v>126836.595045423</v>
       </c>
       <c r="F17" t="n">
         <v>119428.953882205</v>
       </c>
       <c r="G17" t="n">
-        <v>-12668.929717443</v>
+        <v>-7407.64116321842</v>
       </c>
       <c r="H17" t="n">
-        <v>-1384.28917334436</v>
+        <v>57.3118993471363</v>
       </c>
       <c r="I17" t="n">
-        <v>17400.9581795719</v>
+        <v>15373.4403499291</v>
       </c>
       <c r="J17" t="n">
-        <v>119428.081805179</v>
+        <v>119428.283615313</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
@@ -4192,31 +4496,31 @@
         <v>15.3258805423762</v>
       </c>
       <c r="C18" t="n">
-        <v>-50336.7374357869</v>
+        <v>-20150.0291106937</v>
       </c>
       <c r="D18" t="n">
-        <v>39291.5972557845</v>
+        <v>39218.5819817927</v>
       </c>
       <c r="E18" t="n">
-        <v>141437.058505937</v>
+        <v>138765.810015901</v>
       </c>
       <c r="F18" t="n">
         <v>130313.353391147</v>
       </c>
       <c r="G18" t="n">
-        <v>-11123.7051147901</v>
+        <v>-8452.45662475406</v>
       </c>
       <c r="H18" t="n">
-        <v>-1656.35651366112</v>
+        <v>-577.00039368633</v>
       </c>
       <c r="I18" t="n">
-        <v>37635.2407421233</v>
+        <v>38641.5815881064</v>
       </c>
       <c r="J18" t="n">
-        <v>130312.634064836</v>
+        <v>130313.080909216</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
@@ -4227,31 +4531,31 @@
         <v>14.8733170138056</v>
       </c>
       <c r="C19" t="n">
-        <v>-50336.7374357869</v>
+        <v>-20150.0291106937</v>
       </c>
       <c r="D19" t="n">
-        <v>36627.5932761813</v>
+        <v>36151.6260342663</v>
       </c>
       <c r="E19" t="n">
-        <v>141437.058505937</v>
+        <v>138765.810015901</v>
       </c>
       <c r="F19" t="n">
         <v>130313.353391147</v>
       </c>
       <c r="G19" t="n">
-        <v>-11123.7051147901</v>
+        <v>-8452.45662475406</v>
       </c>
       <c r="H19" t="n">
-        <v>-2215.08328843348</v>
+        <v>-1445.1980640937</v>
       </c>
       <c r="I19" t="n">
-        <v>34412.5099877478</v>
+        <v>34706.4279701726</v>
       </c>
       <c r="J19" t="n">
-        <v>130312.634064836</v>
+        <v>130313.080909216</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -4262,31 +4566,31 @@
         <v>13.8768502823917</v>
       </c>
       <c r="C20" t="n">
-        <v>-50336.7374357869</v>
+        <v>-20150.0291106937</v>
       </c>
       <c r="D20" t="n">
-        <v>30761.9165911568</v>
+        <v>29398.7187063715</v>
       </c>
       <c r="E20" t="n">
-        <v>141437.058505937</v>
+        <v>138765.810015901</v>
       </c>
       <c r="F20" t="n">
         <v>130313.353391147</v>
       </c>
       <c r="G20" t="n">
-        <v>-11123.7051147901</v>
+        <v>-8452.45662475406</v>
       </c>
       <c r="H20" t="n">
-        <v>-3060.46949766145</v>
+        <v>-2547.28111187498</v>
       </c>
       <c r="I20" t="n">
-        <v>27701.4470934954</v>
+        <v>26851.4375944965</v>
       </c>
       <c r="J20" t="n">
-        <v>130312.634064836</v>
+        <v>130313.080909216</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -4297,31 +4601,31 @@
         <v>14.555360709698</v>
       </c>
       <c r="C21" t="n">
-        <v>-50336.7374357869</v>
+        <v>-20150.0291106937</v>
       </c>
       <c r="D21" t="n">
-        <v>34755.9513828144</v>
+        <v>33996.8832934704</v>
       </c>
       <c r="E21" t="n">
-        <v>141437.058505937</v>
+        <v>138765.810015901</v>
       </c>
       <c r="F21" t="n">
         <v>130313.353391147</v>
       </c>
       <c r="G21" t="n">
-        <v>-11123.7051147901</v>
+        <v>-8452.45662475406</v>
       </c>
       <c r="H21" t="n">
-        <v>-4192.51514134502</v>
+        <v>-3883.24953703018</v>
       </c>
       <c r="I21" t="n">
-        <v>30563.4362414694</v>
+        <v>30113.6337564402</v>
       </c>
       <c r="J21" t="n">
-        <v>130312.634064836</v>
+        <v>130313.080909216</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
@@ -4332,31 +4636,31 @@
         <v>15.0667257975563</v>
       </c>
       <c r="C22" t="n">
-        <v>-52284.3672196516</v>
+        <v>-24038.6062413248</v>
       </c>
       <c r="D22" t="n">
-        <v>37367.9420462677</v>
+        <v>36710.3701634067</v>
       </c>
       <c r="E22" t="n">
-        <v>158457.726758376</v>
+        <v>157186.637530882</v>
       </c>
       <c r="F22" t="n">
         <v>133427.127138127</v>
       </c>
       <c r="G22" t="n">
-        <v>-25030.5996202495</v>
+        <v>-23759.5103927547</v>
       </c>
       <c r="H22" t="n">
-        <v>-5611.22021948419</v>
+        <v>-5453.10333955928</v>
       </c>
       <c r="I22" t="n">
-        <v>31756.7218267835</v>
+        <v>31257.2668238474</v>
       </c>
       <c r="J22" t="n">
-        <v>133426.477459465</v>
+        <v>133427.275391585</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
@@ -4367,31 +4671,31 @@
         <v>15.6731164614357</v>
       </c>
       <c r="C23" t="n">
-        <v>-52284.3672196516</v>
+        <v>-24038.6062413248</v>
       </c>
       <c r="D23" t="n">
-        <v>40937.4456403185</v>
+        <v>40819.7898044096</v>
       </c>
       <c r="E23" t="n">
-        <v>158457.726758376</v>
+        <v>157186.637530882</v>
       </c>
       <c r="F23" t="n">
         <v>133427.127138127</v>
       </c>
       <c r="G23" t="n">
-        <v>-25030.5996202495</v>
+        <v>-23759.5103927547</v>
       </c>
       <c r="H23" t="n">
-        <v>-6437.33909283727</v>
+        <v>-6275.73973867686</v>
       </c>
       <c r="I23" t="n">
-        <v>34500.1065474812</v>
+        <v>34544.0500657327</v>
       </c>
       <c r="J23" t="n">
-        <v>133426.477459465</v>
+        <v>133427.275391585</v>
       </c>
       <c r="K23" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -4402,31 +4706,31 @@
         <v>15.7338178579393</v>
       </c>
       <c r="C24" t="n">
-        <v>-52284.3672196516</v>
+        <v>-24038.6062413248</v>
       </c>
       <c r="D24" t="n">
-        <v>41294.7629044027</v>
+        <v>41231.1541704644</v>
       </c>
       <c r="E24" t="n">
-        <v>158457.726758376</v>
+        <v>157186.637530882</v>
       </c>
       <c r="F24" t="n">
         <v>133427.127138127</v>
       </c>
       <c r="G24" t="n">
-        <v>-25030.5996202495</v>
+        <v>-23759.5103927547</v>
       </c>
       <c r="H24" t="n">
-        <v>-6670.87176140427</v>
+        <v>-6351.15873438292</v>
       </c>
       <c r="I24" t="n">
-        <v>34623.8911429985</v>
+        <v>34879.9954360815</v>
       </c>
       <c r="J24" t="n">
-        <v>133426.477459465</v>
+        <v>133427.275391585</v>
       </c>
       <c r="K24" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
@@ -4437,31 +4741,31 @@
         <v>15.3197862581617</v>
       </c>
       <c r="C25" t="n">
-        <v>-52284.3672196516</v>
+        <v>-24038.6062413248</v>
       </c>
       <c r="D25" t="n">
-        <v>38857.5761673875</v>
+        <v>38425.3233926009</v>
       </c>
       <c r="E25" t="n">
-        <v>158457.726758376</v>
+        <v>157186.637530882</v>
       </c>
       <c r="F25" t="n">
         <v>133427.127138127</v>
       </c>
       <c r="G25" t="n">
-        <v>-25030.5996202495</v>
+        <v>-23759.5103927547</v>
       </c>
       <c r="H25" t="n">
-        <v>-6311.81822518518</v>
+        <v>-5679.36032667747</v>
       </c>
       <c r="I25" t="n">
-        <v>32545.7579422023</v>
+        <v>32745.9630659234</v>
       </c>
       <c r="J25" t="n">
-        <v>133426.477459465</v>
+        <v>133427.275391585</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26">
@@ -4472,31 +4776,31 @@
         <v>14.7328890677592</v>
       </c>
       <c r="C26" t="n">
-        <v>-67783.8506675566</v>
+        <v>-42353.4941231444</v>
       </c>
       <c r="D26" t="n">
-        <v>32234.3145073249</v>
+        <v>30906.3434873815</v>
       </c>
       <c r="E26" t="n">
-        <v>134132.414040095</v>
+        <v>129606.338973463</v>
       </c>
       <c r="F26" t="n">
         <v>115948.507333577</v>
       </c>
       <c r="G26" t="n">
-        <v>-18183.9067065176</v>
+        <v>-13657.8316398862</v>
       </c>
       <c r="H26" t="n">
-        <v>-5360.17848418</v>
+        <v>-4260.34451556048</v>
       </c>
       <c r="I26" t="n">
-        <v>26874.1360231449</v>
+        <v>26645.998971821</v>
       </c>
       <c r="J26" t="n">
-        <v>115948.411919695</v>
+        <v>115950.637217134</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
@@ -4507,31 +4811,31 @@
         <v>14.7581102218019</v>
       </c>
       <c r="C27" t="n">
-        <v>-67783.8506675566</v>
+        <v>-42353.4941231444</v>
       </c>
       <c r="D27" t="n">
-        <v>32382.7782046802</v>
+        <v>31077.2635096795</v>
       </c>
       <c r="E27" t="n">
-        <v>134132.414040095</v>
+        <v>129606.338973463</v>
       </c>
       <c r="F27" t="n">
         <v>115948.507333577</v>
       </c>
       <c r="G27" t="n">
-        <v>-18183.9067065176</v>
+        <v>-13657.8316398862</v>
       </c>
       <c r="H27" t="n">
-        <v>-4653.85140614588</v>
+        <v>-3354.17056052246</v>
       </c>
       <c r="I27" t="n">
-        <v>27728.9267985344</v>
+        <v>27723.0929491571</v>
       </c>
       <c r="J27" t="n">
-        <v>115948.411919695</v>
+        <v>115950.637217134</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28">
@@ -4542,31 +4846,31 @@
         <v>14.9432457255233</v>
       </c>
       <c r="C28" t="n">
-        <v>-67783.8506675566</v>
+        <v>-42353.4941231444</v>
       </c>
       <c r="D28" t="n">
-        <v>33472.5737528046</v>
+        <v>32331.8993749028</v>
       </c>
       <c r="E28" t="n">
-        <v>134132.414040095</v>
+        <v>129606.338973463</v>
       </c>
       <c r="F28" t="n">
         <v>115948.507333577</v>
       </c>
       <c r="G28" t="n">
-        <v>-18183.9067065176</v>
+        <v>-13657.8316398862</v>
       </c>
       <c r="H28" t="n">
-        <v>-4192.83699108285</v>
+        <v>-2960.83846156343</v>
       </c>
       <c r="I28" t="n">
-        <v>29279.7367617217</v>
+        <v>29371.0609133394</v>
       </c>
       <c r="J28" t="n">
-        <v>115948.411919695</v>
+        <v>115950.637217134</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
@@ -4577,31 +4881,31 @@
         <v>15.3798692978029</v>
       </c>
       <c r="C29" t="n">
-        <v>-67783.8506675566</v>
+        <v>-42353.4941231444</v>
       </c>
       <c r="D29" t="n">
-        <v>36042.7475752852</v>
+        <v>35290.8326014996</v>
       </c>
       <c r="E29" t="n">
-        <v>134132.414040095</v>
+        <v>129606.338973463</v>
       </c>
       <c r="F29" t="n">
         <v>115948.507333577</v>
       </c>
       <c r="G29" t="n">
-        <v>-18183.9067065176</v>
+        <v>-13657.8316398862</v>
       </c>
       <c r="H29" t="n">
-        <v>-3977.13523899089</v>
+        <v>-3080.34821868336</v>
       </c>
       <c r="I29" t="n">
-        <v>32065.6123362944</v>
+        <v>32210.4843828163</v>
       </c>
       <c r="J29" t="n">
-        <v>115948.411919695</v>
+        <v>115950.637217134</v>
       </c>
       <c r="K29" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -4612,31 +4916,31 @@
         <v>16.3753445128911</v>
       </c>
       <c r="C30" t="n">
-        <v>-73611.1814092702</v>
+        <v>-46418.4739477201</v>
       </c>
       <c r="D30" t="n">
-        <v>40711.3266101572</v>
+        <v>41250.9499473792</v>
       </c>
       <c r="E30" t="n">
-        <v>152052.888611112</v>
+        <v>152578.942205274</v>
       </c>
       <c r="F30" t="n">
         <v>133884.030258918</v>
       </c>
       <c r="G30" t="n">
-        <v>-18168.8583521941</v>
+        <v>-18694.9119463558</v>
       </c>
       <c r="H30" t="n">
-        <v>-4006.74614986999</v>
+        <v>-3712.69983188227</v>
       </c>
       <c r="I30" t="n">
-        <v>36704.5804602872</v>
+        <v>37538.250115497</v>
       </c>
       <c r="J30" t="n">
-        <v>133884.143231606</v>
+        <v>133886.599964243</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31">
@@ -4647,31 +4951,31 @@
         <v>15.0887588439557</v>
       </c>
       <c r="C31" t="n">
-        <v>-73611.1814092702</v>
+        <v>-46418.4739477201</v>
       </c>
       <c r="D31" t="n">
-        <v>33137.8719993315</v>
+        <v>32531.9495855805</v>
       </c>
       <c r="E31" t="n">
-        <v>152052.888611112</v>
+        <v>152578.942205274</v>
       </c>
       <c r="F31" t="n">
         <v>133884.030258918</v>
       </c>
       <c r="G31" t="n">
-        <v>-18168.8583521941</v>
+        <v>-18694.9119463558</v>
       </c>
       <c r="H31" t="n">
-        <v>-4232.76659222426</v>
+        <v>-4349.79476851204</v>
       </c>
       <c r="I31" t="n">
-        <v>28905.1054071073</v>
+        <v>28182.1548170685</v>
       </c>
       <c r="J31" t="n">
-        <v>133884.143231606</v>
+        <v>133886.599964243</v>
       </c>
       <c r="K31" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
@@ -4682,31 +4986,31 @@
         <v>15.4220345279437</v>
       </c>
       <c r="C32" t="n">
-        <v>-73611.1814092702</v>
+        <v>-46418.4739477201</v>
       </c>
       <c r="D32" t="n">
-        <v>35099.6910421812</v>
+        <v>34790.5094929627</v>
       </c>
       <c r="E32" t="n">
-        <v>152052.888611112</v>
+        <v>152578.942205274</v>
       </c>
       <c r="F32" t="n">
         <v>133884.030258918</v>
       </c>
       <c r="G32" t="n">
-        <v>-18168.8583521941</v>
+        <v>-18694.9119463558</v>
       </c>
       <c r="H32" t="n">
-        <v>-4655.1965660537</v>
+        <v>-4991.63302857268</v>
       </c>
       <c r="I32" t="n">
-        <v>30444.4944761275</v>
+        <v>29798.87646439</v>
       </c>
       <c r="J32" t="n">
-        <v>133884.143231606</v>
+        <v>133886.599964243</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
@@ -4717,31 +5021,31 @@
         <v>16.7818139661638</v>
       </c>
       <c r="C33" t="n">
-        <v>-73611.1814092702</v>
+        <v>-46418.4739477201</v>
       </c>
       <c r="D33" t="n">
-        <v>43103.9989594425</v>
+        <v>44005.5331793516</v>
       </c>
       <c r="E33" t="n">
-        <v>152052.888611112</v>
+        <v>152578.942205274</v>
       </c>
       <c r="F33" t="n">
         <v>133884.030258918</v>
       </c>
       <c r="G33" t="n">
-        <v>-18168.8583521941</v>
+        <v>-18694.9119463558</v>
       </c>
       <c r="H33" t="n">
-        <v>-5274.03607135832</v>
+        <v>-5638.2146120642</v>
       </c>
       <c r="I33" t="n">
-        <v>37829.9628880842</v>
+        <v>38367.3185672874</v>
       </c>
       <c r="J33" t="n">
-        <v>133884.143231606</v>
+        <v>133886.599964243</v>
       </c>
       <c r="K33" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
@@ -4752,31 +5056,31 @@
         <v>16.6647643679365</v>
       </c>
       <c r="C34" t="n">
-        <v>-78361.1775105777</v>
+        <v>-54599.8367456007</v>
       </c>
       <c r="D34" t="n">
-        <v>41443.9640931529</v>
+        <v>41630.2240082657</v>
       </c>
       <c r="E34" t="n">
-        <v>159987.110701467</v>
+        <v>159856.556151905</v>
       </c>
       <c r="F34" t="n">
         <v>135485.370809955</v>
       </c>
       <c r="G34" t="n">
-        <v>-24501.7398915125</v>
+        <v>-24371.1853419495</v>
       </c>
       <c r="H34" t="n">
-        <v>-6089.2851081381</v>
+        <v>-6289.53951898658</v>
       </c>
       <c r="I34" t="n">
-        <v>35354.6789850148</v>
+        <v>35340.6844892791</v>
       </c>
       <c r="J34" t="n">
-        <v>135485.6536435</v>
+        <v>135488.825720522</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
@@ -4787,31 +5091,31 @@
         <v>15.8762559792141</v>
       </c>
       <c r="C35" t="n">
-        <v>-78361.1775105777</v>
+        <v>-54599.8367456007</v>
       </c>
       <c r="D35" t="n">
-        <v>36802.4290314531</v>
+        <v>36286.6195421592</v>
       </c>
       <c r="E35" t="n">
-        <v>159987.110701467</v>
+        <v>159856.556151905</v>
       </c>
       <c r="F35" t="n">
         <v>135485.370809955</v>
       </c>
       <c r="G35" t="n">
-        <v>-24501.7398915125</v>
+        <v>-24371.1853419495</v>
       </c>
       <c r="H35" t="n">
-        <v>-6429.81638539153</v>
+        <v>-6471.02671729914</v>
       </c>
       <c r="I35" t="n">
-        <v>30372.6126460615</v>
+        <v>29815.5928248601</v>
       </c>
       <c r="J35" t="n">
-        <v>135485.6536435</v>
+        <v>135488.825720522</v>
       </c>
       <c r="K35" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
@@ -4822,31 +5126,31 @@
         <v>16.2633429336138</v>
       </c>
       <c r="C36" t="n">
-        <v>-78361.1775105777</v>
+        <v>-54599.8367456007</v>
       </c>
       <c r="D36" t="n">
-        <v>39081.0067821399</v>
+        <v>38909.8504524266</v>
       </c>
       <c r="E36" t="n">
-        <v>159987.110701467</v>
+        <v>159856.556151905</v>
       </c>
       <c r="F36" t="n">
         <v>135485.370809955</v>
       </c>
       <c r="G36" t="n">
-        <v>-24501.7398915125</v>
+        <v>-24371.1853419495</v>
       </c>
       <c r="H36" t="n">
-        <v>-6295.62990311862</v>
+        <v>-6182.67620700188</v>
       </c>
       <c r="I36" t="n">
-        <v>32785.3768790212</v>
+        <v>32727.1742454247</v>
       </c>
       <c r="J36" t="n">
-        <v>135485.6536435</v>
+        <v>135488.825720522</v>
       </c>
       <c r="K36" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37">
@@ -4857,31 +5161,31 @@
         <v>16.8712965733395</v>
       </c>
       <c r="C37" t="n">
-        <v>-78361.1775105777</v>
+        <v>-54599.8367456007</v>
       </c>
       <c r="D37" t="n">
-        <v>42659.7107947216</v>
+        <v>43029.862149053</v>
       </c>
       <c r="E37" t="n">
-        <v>159987.110701467</v>
+        <v>159856.556151905</v>
       </c>
       <c r="F37" t="n">
         <v>135485.370809955</v>
       </c>
       <c r="G37" t="n">
-        <v>-24501.7398915125</v>
+        <v>-24371.1853419495</v>
       </c>
       <c r="H37" t="n">
-        <v>-5686.72566131936</v>
+        <v>-5424.48798809481</v>
       </c>
       <c r="I37" t="n">
-        <v>36972.9851334023</v>
+        <v>37605.3741609582</v>
       </c>
       <c r="J37" t="n">
-        <v>135485.6536435</v>
+        <v>135488.825720522</v>
       </c>
       <c r="K37" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
@@ -4892,31 +5196,31 @@
         <v>16.0508175345883</v>
       </c>
       <c r="C38" t="n">
-        <v>-88578.1602945334</v>
+        <v>-66604.4357200165</v>
       </c>
       <c r="D38" t="n">
-        <v>35741.3587624574</v>
+        <v>35148.1927934668</v>
       </c>
       <c r="E38" t="n">
-        <v>151455.522612552</v>
+        <v>150367.052573173</v>
       </c>
       <c r="F38" t="n">
         <v>133078.852610675</v>
       </c>
       <c r="G38" t="n">
-        <v>-18376.670001877</v>
+        <v>-17288.1999624979</v>
       </c>
       <c r="H38" t="n">
-        <v>-4603.10365999375</v>
+        <v>-4196.46206057791</v>
       </c>
       <c r="I38" t="n">
-        <v>31138.2551024637</v>
+        <v>30951.7307328889</v>
       </c>
       <c r="J38" t="n">
-        <v>133079.500805667</v>
+        <v>133083.606392128</v>
       </c>
       <c r="K38" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39">
@@ -4927,31 +5231,31 @@
         <v>16.0463647623357</v>
       </c>
       <c r="C39" t="n">
-        <v>-88578.1602945334</v>
+        <v>-66604.4357200165</v>
       </c>
       <c r="D39" t="n">
-        <v>35715.1476290975</v>
+        <v>35118.0170159661</v>
       </c>
       <c r="E39" t="n">
-        <v>151455.522612552</v>
+        <v>150367.052573173</v>
       </c>
       <c r="F39" t="n">
         <v>133078.852610675</v>
       </c>
       <c r="G39" t="n">
-        <v>-18376.670001877</v>
+        <v>-17288.1999624979</v>
       </c>
       <c r="H39" t="n">
-        <v>-4166.01557615444</v>
+        <v>-3755.01148344446</v>
       </c>
       <c r="I39" t="n">
-        <v>31549.1320529431</v>
+        <v>31363.0055325216</v>
       </c>
       <c r="J39" t="n">
-        <v>133079.500805667</v>
+        <v>133083.606392128</v>
       </c>
       <c r="K39" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40">
@@ -4962,31 +5266,31 @@
         <v>16.1262140171378</v>
       </c>
       <c r="C40" t="n">
-        <v>-88578.1602945334</v>
+        <v>-66604.4357200165</v>
       </c>
       <c r="D40" t="n">
-        <v>36185.1782858612</v>
+        <v>35659.143579334</v>
       </c>
       <c r="E40" t="n">
-        <v>151455.522612552</v>
+        <v>150367.052573173</v>
       </c>
       <c r="F40" t="n">
         <v>133078.852610675</v>
       </c>
       <c r="G40" t="n">
-        <v>-18376.670001877</v>
+        <v>-17288.1999624979</v>
       </c>
       <c r="H40" t="n">
-        <v>-4375.46140980143</v>
+        <v>-4100.13625669445</v>
       </c>
       <c r="I40" t="n">
-        <v>31809.7168760598</v>
+        <v>31559.0073226396</v>
       </c>
       <c r="J40" t="n">
-        <v>133079.500805667</v>
+        <v>133083.606392128</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41">
@@ -4997,31 +5301,31 @@
         <v>17.4221779704851</v>
       </c>
       <c r="C41" t="n">
-        <v>-88578.1602945334</v>
+        <v>-66604.4357200165</v>
       </c>
       <c r="D41" t="n">
-        <v>43813.8379351355</v>
+        <v>44441.6991844056</v>
       </c>
       <c r="E41" t="n">
-        <v>151455.522612552</v>
+        <v>150367.052573173</v>
       </c>
       <c r="F41" t="n">
         <v>133078.852610675</v>
       </c>
       <c r="G41" t="n">
-        <v>-18376.670001877</v>
+        <v>-17288.1999624979</v>
       </c>
       <c r="H41" t="n">
-        <v>-5231.4411609347</v>
+        <v>-5231.83638032787</v>
       </c>
       <c r="I41" t="n">
-        <v>38582.3967742008</v>
+        <v>39209.8628040778</v>
       </c>
       <c r="J41" t="n">
-        <v>133079.500805667</v>
+        <v>133083.606392128</v>
       </c>
       <c r="K41" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42">
@@ -5032,31 +5336,31 @@
         <v>16.5941465714623</v>
       </c>
       <c r="C42" t="n">
-        <v>-90807.5805352537</v>
+        <v>-68807.0684741327</v>
       </c>
       <c r="D42" t="n">
-        <v>38483.8989678778</v>
+        <v>38404.3162371804</v>
       </c>
       <c r="E42" t="n">
-        <v>169893.6038674</v>
+        <v>171989.049641384</v>
       </c>
       <c r="F42" t="n">
         <v>140420.938428074</v>
       </c>
       <c r="G42" t="n">
-        <v>-29472.6654393257</v>
+        <v>-31568.1112133098</v>
       </c>
       <c r="H42" t="n">
-        <v>-6733.95482955429</v>
+        <v>-7150.11185434474</v>
       </c>
       <c r="I42" t="n">
-        <v>31749.9441383235</v>
+        <v>31254.2043828357</v>
       </c>
       <c r="J42" t="n">
-        <v>140421.666347602</v>
+        <v>140425.930529488</v>
       </c>
       <c r="K42" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43">
@@ -5067,31 +5371,31 @@
         <v>16.300238106994</v>
       </c>
       <c r="C43" t="n">
-        <v>-90807.5805352537</v>
+        <v>-68807.0684741327</v>
       </c>
       <c r="D43" t="n">
-        <v>36753.8140857494</v>
+        <v>36412.5421408971</v>
       </c>
       <c r="E43" t="n">
-        <v>169893.6038674</v>
+        <v>171989.049641384</v>
       </c>
       <c r="F43" t="n">
         <v>140420.938428074</v>
       </c>
       <c r="G43" t="n">
-        <v>-29472.6654393257</v>
+        <v>-31568.1112133098</v>
       </c>
       <c r="H43" t="n">
-        <v>-7588.57211716016</v>
+        <v>-8213.68921340318</v>
       </c>
       <c r="I43" t="n">
-        <v>29165.2419685893</v>
+        <v>28198.8529274939</v>
       </c>
       <c r="J43" t="n">
-        <v>140421.666347602</v>
+        <v>140425.930529488</v>
       </c>
       <c r="K43" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44">
@@ -5102,31 +5406,31 @@
         <v>17.5421545403324</v>
       </c>
       <c r="C44" t="n">
-        <v>-90807.5805352537</v>
+        <v>-68807.0684741327</v>
       </c>
       <c r="D44" t="n">
-        <v>44064.3243497959</v>
+        <v>44828.8257145839</v>
       </c>
       <c r="E44" t="n">
-        <v>169893.6038674</v>
+        <v>171989.049641384</v>
       </c>
       <c r="F44" t="n">
         <v>140420.938428074</v>
       </c>
       <c r="G44" t="n">
-        <v>-29472.6654393257</v>
+        <v>-31568.1112133098</v>
       </c>
       <c r="H44" t="n">
-        <v>-7795.29302375233</v>
+        <v>-8422.56845750319</v>
       </c>
       <c r="I44" t="n">
-        <v>36269.0313260436</v>
+        <v>36406.2572570807</v>
       </c>
       <c r="J44" t="n">
-        <v>140421.666347602</v>
+        <v>140425.930529488</v>
       </c>
       <c r="K44" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45">
@@ -5137,31 +5441,31 @@
         <v>18.6510086357636</v>
       </c>
       <c r="C45" t="n">
-        <v>-90807.5805352537</v>
+        <v>-68807.0684741327</v>
       </c>
       <c r="D45" t="n">
-        <v>50591.5664639765</v>
+        <v>52343.3655487223</v>
       </c>
       <c r="E45" t="n">
-        <v>169893.6038674</v>
+        <v>171989.049641384</v>
       </c>
       <c r="F45" t="n">
         <v>140420.938428074</v>
       </c>
       <c r="G45" t="n">
-        <v>-29472.6654393257</v>
+        <v>-31568.1112133098</v>
       </c>
       <c r="H45" t="n">
-        <v>-7354.11754933079</v>
+        <v>-7776.74958664477</v>
       </c>
       <c r="I45" t="n">
-        <v>43237.4489146457</v>
+        <v>44566.6159620776</v>
       </c>
       <c r="J45" t="n">
-        <v>140421.666347602</v>
+        <v>140425.930529488</v>
       </c>
       <c r="K45" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46">
@@ -5172,31 +5476,31 @@
         <v>18.361815043837</v>
       </c>
       <c r="C46" t="n">
-        <v>-103726.586717789</v>
+        <v>-84790.7273209119</v>
       </c>
       <c r="D46" t="n">
-        <v>46248.2477105467</v>
+        <v>47292.6831680992</v>
       </c>
       <c r="E46" t="n">
-        <v>172841.069306661</v>
+        <v>175180.735543036</v>
       </c>
       <c r="F46" t="n">
         <v>145232.482866321</v>
       </c>
       <c r="G46" t="n">
-        <v>-27608.5864403402</v>
+        <v>-29948.2526767148</v>
       </c>
       <c r="H46" t="n">
-        <v>-6265.04569389554</v>
+        <v>-6276.23260082792</v>
       </c>
       <c r="I46" t="n">
-        <v>39983.2020166512</v>
+        <v>41016.4505672713</v>
       </c>
       <c r="J46" t="n">
-        <v>145233.672772221</v>
+        <v>145239.204364042</v>
       </c>
       <c r="K46" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47">
@@ -5207,31 +5511,31 @@
         <v>17.2006632053819</v>
       </c>
       <c r="C47" t="n">
-        <v>-103726.586717789</v>
+        <v>-84790.7273209119</v>
       </c>
       <c r="D47" t="n">
-        <v>39413.1562299357</v>
+        <v>39423.7292818254</v>
       </c>
       <c r="E47" t="n">
-        <v>172841.069306661</v>
+        <v>175180.735543036</v>
       </c>
       <c r="F47" t="n">
         <v>145232.482866321</v>
       </c>
       <c r="G47" t="n">
-        <v>-27608.5864403402</v>
+        <v>-29948.2526767148</v>
       </c>
       <c r="H47" t="n">
-        <v>-6084.13832760729</v>
+        <v>-6159.68588406943</v>
       </c>
       <c r="I47" t="n">
-        <v>33329.0179023284</v>
+        <v>33264.043397756</v>
       </c>
       <c r="J47" t="n">
-        <v>145233.672772221</v>
+        <v>145239.204364042</v>
       </c>
       <c r="K47" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48">
@@ -5242,31 +5546,31 @@
         <v>17.7851196072229</v>
       </c>
       <c r="C48" t="n">
-        <v>-103726.586717789</v>
+        <v>-84790.7273209119</v>
       </c>
       <c r="D48" t="n">
-        <v>42853.5443348431</v>
+        <v>43384.503680412</v>
       </c>
       <c r="E48" t="n">
-        <v>172841.069306661</v>
+        <v>175180.735543036</v>
       </c>
       <c r="F48" t="n">
         <v>145232.482866321</v>
       </c>
       <c r="G48" t="n">
-        <v>-27608.5864403402</v>
+        <v>-29948.2526767148</v>
       </c>
       <c r="H48" t="n">
-        <v>-6811.39545046605</v>
+        <v>-7427.10943636932</v>
       </c>
       <c r="I48" t="n">
-        <v>36042.1488843771</v>
+        <v>35957.3942440427</v>
       </c>
       <c r="J48" t="n">
-        <v>145233.672772221</v>
+        <v>145239.204364042</v>
       </c>
       <c r="K48" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49">
@@ -5277,31 +5581,31 @@
         <v>18.0352823363172</v>
       </c>
       <c r="C49" t="n">
-        <v>-103726.586717789</v>
+        <v>-84790.7273209119</v>
       </c>
       <c r="D49" t="n">
-        <v>44326.1210313358</v>
+        <v>45079.8194126993</v>
       </c>
       <c r="E49" t="n">
-        <v>172841.069306661</v>
+        <v>175180.735543036</v>
       </c>
       <c r="F49" t="n">
         <v>145232.482866321</v>
       </c>
       <c r="G49" t="n">
-        <v>-27608.5864403402</v>
+        <v>-29948.2526767148</v>
       </c>
       <c r="H49" t="n">
-        <v>-8446.8170624718</v>
+        <v>-10078.5032577276</v>
       </c>
       <c r="I49" t="n">
-        <v>35879.303968864</v>
+        <v>35001.3161549717</v>
       </c>
       <c r="J49" t="n">
-        <v>145233.672772221</v>
+        <v>145239.204364042</v>
       </c>
       <c r="K49" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50">
@@ -5312,31 +5616,31 @@
         <v>19.9983332810654</v>
       </c>
       <c r="C50" t="n">
-        <v>-112426.459124837</v>
+        <v>-95534.3098909062</v>
       </c>
       <c r="D50" t="n">
-        <v>54103.0868066516</v>
+        <v>56305.570784282</v>
       </c>
       <c r="E50" t="n">
-        <v>218914.949042588</v>
+        <v>228103.423549298</v>
       </c>
       <c r="F50" t="n">
         <v>162879.605870914</v>
       </c>
       <c r="G50" t="n">
-        <v>-56035.3431716741</v>
+        <v>-65223.8176783838</v>
       </c>
       <c r="H50" t="n">
-        <v>-10990.4031636246</v>
+        <v>-14113.8673481442</v>
       </c>
       <c r="I50" t="n">
-        <v>43112.683643027</v>
+        <v>42191.7034361378</v>
       </c>
       <c r="J50" t="n">
-        <v>162881.106886076</v>
+        <v>162887.489800353</v>
       </c>
       <c r="K50" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51">
@@ -5347,31 +5651,31 @@
         <v>19.8484447947693</v>
       </c>
       <c r="C51" t="n">
-        <v>-112426.459124837</v>
+        <v>-95534.3098909062</v>
       </c>
       <c r="D51" t="n">
-        <v>53220.7719518719</v>
+        <v>55289.7987313211</v>
       </c>
       <c r="E51" t="n">
-        <v>218914.949042588</v>
+        <v>228103.423549298</v>
       </c>
       <c r="F51" t="n">
         <v>162879.605870914</v>
       </c>
       <c r="G51" t="n">
-        <v>-56035.3431716741</v>
+        <v>-65223.8176783838</v>
       </c>
       <c r="H51" t="n">
-        <v>-13215.0605542871</v>
+        <v>-16604.0594199477</v>
       </c>
       <c r="I51" t="n">
-        <v>40005.7113975848</v>
+        <v>38685.7393113734</v>
       </c>
       <c r="J51" t="n">
-        <v>162881.106886076</v>
+        <v>162887.489800353</v>
       </c>
       <c r="K51" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52">
@@ -5382,31 +5686,31 @@
         <v>19.9193142906925</v>
       </c>
       <c r="C52" t="n">
-        <v>-112426.459124837</v>
+        <v>-95534.3098909062</v>
       </c>
       <c r="D52" t="n">
-        <v>53637.9434808463</v>
+        <v>55770.0707998776</v>
       </c>
       <c r="E52" t="n">
-        <v>218914.949042588</v>
+        <v>228103.423549298</v>
       </c>
       <c r="F52" t="n">
         <v>162879.605870914</v>
       </c>
       <c r="G52" t="n">
-        <v>-56035.3431716741</v>
+        <v>-65223.8176783838</v>
       </c>
       <c r="H52" t="n">
-        <v>-15120.7892344593</v>
+        <v>-17549.0794731381</v>
       </c>
       <c r="I52" t="n">
-        <v>38517.154246387</v>
+        <v>38220.9913267396</v>
       </c>
       <c r="J52" t="n">
-        <v>162881.106886076</v>
+        <v>162887.489800353</v>
       </c>
       <c r="K52" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53">
@@ -5417,31 +5721,31 @@
         <v>20.6523851333131</v>
       </c>
       <c r="C53" t="n">
-        <v>-112426.459124837</v>
+        <v>-95534.3098909062</v>
       </c>
       <c r="D53" t="n">
-        <v>57953.1468032187</v>
+        <v>60737.9832338175</v>
       </c>
       <c r="E53" t="n">
-        <v>218914.949042588</v>
+        <v>228103.423549298</v>
       </c>
       <c r="F53" t="n">
         <v>162879.605870914</v>
       </c>
       <c r="G53" t="n">
-        <v>-56035.3431716741</v>
+        <v>-65223.8176783838</v>
       </c>
       <c r="H53" t="n">
-        <v>-16707.5892041414</v>
+        <v>-16948.9275077153</v>
       </c>
       <c r="I53" t="n">
-        <v>41245.5575990773</v>
+        <v>43789.0557261022</v>
       </c>
       <c r="J53" t="n">
-        <v>162881.106886076</v>
+        <v>162887.489800353</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54">
@@ -5452,31 +5756,31 @@
         <v>20.5110058990967</v>
       </c>
       <c r="C54" t="n">
-        <v>-147967.155430795</v>
+        <v>-139120.0904478</v>
       </c>
       <c r="D54" t="n">
-        <v>49855.4595517113</v>
+        <v>51351.4215937619</v>
       </c>
       <c r="E54" t="n">
-        <v>229379.94465213</v>
+        <v>213927.403054392</v>
       </c>
       <c r="F54" t="n">
         <v>181429.084980835</v>
       </c>
       <c r="G54" t="n">
-        <v>-47950.8596712947</v>
+        <v>-32498.3180735567</v>
       </c>
       <c r="H54" t="n">
-        <v>-17975.4604633331</v>
+        <v>-14803.6035236793</v>
       </c>
       <c r="I54" t="n">
-        <v>31879.9990883782</v>
+        <v>36547.8180700825</v>
       </c>
       <c r="J54" t="n">
-        <v>181431.856938753</v>
+        <v>181441.684794705</v>
       </c>
       <c r="K54" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55">
@@ -5487,31 +5791,31 @@
         <v>20.2414536890036</v>
       </c>
       <c r="C55" t="n">
-        <v>-147967.155430795</v>
+        <v>-139120.0904478</v>
       </c>
       <c r="D55" t="n">
-        <v>48268.7471565104</v>
+        <v>49524.7062229387</v>
       </c>
       <c r="E55" t="n">
-        <v>229379.94465213</v>
+        <v>213927.403054392</v>
       </c>
       <c r="F55" t="n">
         <v>181429.084980835</v>
       </c>
       <c r="G55" t="n">
-        <v>-47950.8596712947</v>
+        <v>-32498.3180735567</v>
       </c>
       <c r="H55" t="n">
-        <v>-16087.2335530143</v>
+        <v>-11272.6043465619</v>
       </c>
       <c r="I55" t="n">
-        <v>32181.5136034961</v>
+        <v>38252.1018763768</v>
       </c>
       <c r="J55" t="n">
-        <v>181431.856938753</v>
+        <v>181441.684794705</v>
       </c>
       <c r="K55" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56">
@@ -5522,31 +5826,31 @@
         <v>21.9972618567386</v>
       </c>
       <c r="C56" t="n">
-        <v>-147967.155430795</v>
+        <v>-139120.0904478</v>
       </c>
       <c r="D56" t="n">
-        <v>58604.2683617648</v>
+        <v>61423.5579040695</v>
       </c>
       <c r="E56" t="n">
-        <v>229379.94465213</v>
+        <v>213927.403054392</v>
       </c>
       <c r="F56" t="n">
         <v>181429.084980835</v>
       </c>
       <c r="G56" t="n">
-        <v>-47950.8596712947</v>
+        <v>-32498.3180735567</v>
       </c>
       <c r="H56" t="n">
-        <v>-11042.9084731848</v>
+        <v>-6355.92997636299</v>
       </c>
       <c r="I56" t="n">
-        <v>47561.3598885799</v>
+        <v>55067.6279277066</v>
       </c>
       <c r="J56" t="n">
-        <v>181431.856938753</v>
+        <v>181441.684794705</v>
       </c>
       <c r="K56" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57">
@@ -5554,34 +5858,34 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>24.3836137539239</v>
+        <v>20.5517764145848</v>
       </c>
       <c r="C57" t="n">
-        <v>-147967.155430795</v>
+        <v>-139120.0904478</v>
       </c>
       <c r="D57" t="n">
-        <v>72651.4695821435</v>
+        <v>51627.7173336218</v>
       </c>
       <c r="E57" t="n">
-        <v>229379.94465213</v>
+        <v>213927.403054392</v>
       </c>
       <c r="F57" t="n">
         <v>181429.084980835</v>
       </c>
       <c r="G57" t="n">
-        <v>-47950.8596712947</v>
+        <v>-32498.3180735567</v>
       </c>
       <c r="H57" t="n">
-        <v>-2842.48522384478</v>
+        <v>-53.5804130826073</v>
       </c>
       <c r="I57" t="n">
-        <v>69808.9843582987</v>
+        <v>51574.1369205392</v>
       </c>
       <c r="J57" t="n">
-        <v>181431.856938753</v>
+        <v>181441.684794705</v>
       </c>
       <c r="K57" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58">
@@ -5592,31 +5896,31 @@
         <v>17.8294871120887</v>
       </c>
       <c r="C58" t="n">
-        <v>-168944.519522092</v>
+        <v>-140108.412951261</v>
       </c>
       <c r="D58" t="n">
-        <v>29782.435609495</v>
+        <v>32988.0481521528</v>
       </c>
       <c r="E58" t="n">
-        <v>122143.746832193</v>
+        <v>135422.089340552</v>
       </c>
       <c r="F58" t="n">
         <v>165052.915813528</v>
       </c>
       <c r="G58" t="n">
-        <v>42909.1689813348</v>
+        <v>29630.8264729759</v>
       </c>
       <c r="H58" t="n">
-        <v>8514.03619500591</v>
+        <v>7634.44434327926</v>
       </c>
       <c r="I58" t="n">
-        <v>38296.4718045009</v>
+        <v>40622.4924954321</v>
       </c>
       <c r="J58" t="n">
-        <v>165056.437926386</v>
+        <v>165065.622561693</v>
       </c>
       <c r="K58" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59">
@@ -5627,31 +5931,31 @@
         <v>16.337537831675</v>
       </c>
       <c r="C59" t="n">
-        <v>-168944.519522092</v>
+        <v>-140108.412951261</v>
       </c>
       <c r="D59" t="n">
-        <v>21000.1131962372</v>
+        <v>22877.3290373682</v>
       </c>
       <c r="E59" t="n">
-        <v>122143.746832193</v>
+        <v>135422.089340552</v>
       </c>
       <c r="F59" t="n">
         <v>165052.915813528</v>
       </c>
       <c r="G59" t="n">
-        <v>42909.1689813348</v>
+        <v>29630.8264729759</v>
       </c>
       <c r="H59" t="n">
-        <v>13942.2993939631</v>
+        <v>10620.2298306264</v>
       </c>
       <c r="I59" t="n">
-        <v>34942.4125902003</v>
+        <v>33497.5588679946</v>
       </c>
       <c r="J59" t="n">
-        <v>165056.437926386</v>
+        <v>165065.622561693</v>
       </c>
       <c r="K59" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60">
@@ -5662,31 +5966,31 @@
         <v>18.1861209559625</v>
       </c>
       <c r="C60" t="n">
-        <v>-168944.519522092</v>
+        <v>-140108.412951261</v>
       </c>
       <c r="D60" t="n">
-        <v>31881.7518808297</v>
+        <v>35404.9028465921</v>
       </c>
       <c r="E60" t="n">
-        <v>122143.746832193</v>
+        <v>135422.089340552</v>
       </c>
       <c r="F60" t="n">
         <v>165052.915813528</v>
       </c>
       <c r="G60" t="n">
-        <v>42909.1689813348</v>
+        <v>29630.8264729759</v>
       </c>
       <c r="H60" t="n">
-        <v>13442.3043730269</v>
+        <v>8903.77604895869</v>
       </c>
       <c r="I60" t="n">
-        <v>45324.0562538566</v>
+        <v>44308.6788955508</v>
       </c>
       <c r="J60" t="n">
-        <v>165056.437926386</v>
+        <v>165065.622561693</v>
       </c>
       <c r="K60" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61">
@@ -5697,31 +6001,31 @@
         <v>19.4768244803585</v>
       </c>
       <c r="C61" t="n">
-        <v>-168944.519522092</v>
+        <v>-140108.412951261</v>
       </c>
       <c r="D61" t="n">
-        <v>39479.4461456313</v>
+        <v>44151.809304439</v>
       </c>
       <c r="E61" t="n">
-        <v>122143.746832193</v>
+        <v>135422.089340552</v>
       </c>
       <c r="F61" t="n">
         <v>165052.915813528</v>
       </c>
       <c r="G61" t="n">
-        <v>42909.1689813348</v>
+        <v>29630.8264729759</v>
       </c>
       <c r="H61" t="n">
-        <v>7014.05113219723</v>
+        <v>2485.08299827624</v>
       </c>
       <c r="I61" t="n">
-        <v>46493.4972778286</v>
+        <v>46636.8923027153</v>
       </c>
       <c r="J61" t="n">
-        <v>165056.437926386</v>
+        <v>165065.622561693</v>
       </c>
       <c r="K61" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
@@ -5732,31 +6036,31 @@
         <v>19.9117759252905</v>
       </c>
       <c r="C62" t="n">
-        <v>-95237.8114698289</v>
+        <v>-78743.7408689492</v>
       </c>
       <c r="D62" t="n">
-        <v>57107.3850035459</v>
+        <v>58965.8819689133</v>
       </c>
       <c r="E62" t="n">
-        <v>242240.679618095</v>
+        <v>251763.713113607</v>
       </c>
       <c r="F62" t="n">
         <v>192392.609971178</v>
       </c>
       <c r="G62" t="n">
-        <v>-49848.0696469168</v>
+        <v>-59371.1031424283</v>
       </c>
       <c r="H62" t="n">
-        <v>-5342.4603285259</v>
+        <v>-8635.84932142098</v>
       </c>
       <c r="I62" t="n">
-        <v>51764.92467502</v>
+        <v>50330.0326474924</v>
       </c>
       <c r="J62" t="n">
-        <v>192393.496316694</v>
+        <v>192398.677198426</v>
       </c>
       <c r="K62" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63">
@@ -5767,31 +6071,31 @@
         <v>19.5096031794059</v>
       </c>
       <c r="C63" t="n">
-        <v>-95237.8114698289</v>
+        <v>-78743.7408689492</v>
       </c>
       <c r="D63" t="n">
-        <v>54740.0051156692</v>
+        <v>56240.4168859898</v>
       </c>
       <c r="E63" t="n">
-        <v>242240.679618095</v>
+        <v>251763.713113607</v>
       </c>
       <c r="F63" t="n">
         <v>192392.609971178</v>
       </c>
       <c r="G63" t="n">
-        <v>-49848.0696469168</v>
+        <v>-59371.1031424283</v>
       </c>
       <c r="H63" t="n">
-        <v>-13132.7991115449</v>
+        <v>-15566.3861122496</v>
       </c>
       <c r="I63" t="n">
-        <v>41607.2060041243</v>
+        <v>40674.0307737402</v>
       </c>
       <c r="J63" t="n">
-        <v>192393.496316694</v>
+        <v>192398.677198426</v>
       </c>
       <c r="K63" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64">
@@ -5802,31 +6106,31 @@
         <v>20.3047333337203</v>
       </c>
       <c r="C64" t="n">
-        <v>-95237.8114698289</v>
+        <v>-78743.7408689492</v>
       </c>
       <c r="D64" t="n">
-        <v>59420.519036193</v>
+        <v>61628.896075938</v>
       </c>
       <c r="E64" t="n">
-        <v>242240.679618095</v>
+        <v>251763.713113607</v>
       </c>
       <c r="F64" t="n">
         <v>192392.609971178</v>
       </c>
       <c r="G64" t="n">
-        <v>-49848.0696469168</v>
+        <v>-59371.1031424283</v>
       </c>
       <c r="H64" t="n">
-        <v>-16356.9652168597</v>
+        <v>-18306.5273742095</v>
       </c>
       <c r="I64" t="n">
-        <v>43063.5538193332</v>
+        <v>43322.3687017284</v>
       </c>
       <c r="J64" t="n">
-        <v>192393.496316694</v>
+        <v>192398.677198426</v>
       </c>
       <c r="K64" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
@@ -5837,31 +6141,31 @@
         <v>22.267240788115</v>
       </c>
       <c r="C65" t="n">
-        <v>-95237.8114698289</v>
+        <v>-78743.7408689492</v>
       </c>
       <c r="D65" t="n">
-        <v>70972.7704626871</v>
+        <v>74928.5181827655</v>
       </c>
       <c r="E65" t="n">
-        <v>242240.679618095</v>
+        <v>251763.713113607</v>
       </c>
       <c r="F65" t="n">
         <v>192392.609971178</v>
       </c>
       <c r="G65" t="n">
-        <v>-49848.0696469168</v>
+        <v>-59371.1031424283</v>
       </c>
       <c r="H65" t="n">
-        <v>-15014.9586444704</v>
+        <v>-16856.2731073009</v>
       </c>
       <c r="I65" t="n">
-        <v>55957.8118182167</v>
+        <v>58072.2450754646</v>
       </c>
       <c r="J65" t="n">
-        <v>192393.496316694</v>
+        <v>192398.677198426</v>
       </c>
       <c r="K65" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66">
@@ -5872,31 +6176,31 @@
         <v>22.7451956072487</v>
       </c>
       <c r="C66" t="n">
-        <v>-127724.618211806</v>
+        <v>-120279.785696171</v>
       </c>
       <c r="D66" t="n">
-        <v>67145.0738509849</v>
+        <v>70135.4618587063</v>
       </c>
       <c r="E66" t="n">
-        <v>251681.329173453</v>
+        <v>261086.777027851</v>
       </c>
       <c r="F66" t="n">
         <v>224134.665205098</v>
       </c>
       <c r="G66" t="n">
-        <v>-27546.6639683542</v>
+        <v>-36952.1118227521</v>
       </c>
       <c r="H66" t="n">
-        <v>-9106.77939437699</v>
+        <v>-11215.6233115236</v>
       </c>
       <c r="I66" t="n">
-        <v>58038.2944566079</v>
+        <v>58919.8385471827</v>
       </c>
       <c r="J66" t="n">
-        <v>224136.713285639</v>
+        <v>224145.226539934</v>
       </c>
       <c r="K66" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67">
@@ -5907,31 +6211,31 @@
         <v>22.1727590834854</v>
       </c>
       <c r="C67" t="n">
-        <v>-127724.618211806</v>
+        <v>-120279.785696171</v>
       </c>
       <c r="D67" t="n">
-        <v>63775.4404600831</v>
+        <v>66256.14439209</v>
       </c>
       <c r="E67" t="n">
-        <v>251681.329173453</v>
+        <v>261086.777027851</v>
       </c>
       <c r="F67" t="n">
         <v>224134.665205098</v>
       </c>
       <c r="G67" t="n">
-        <v>-27546.6639683542</v>
+        <v>-36952.1118227521</v>
       </c>
       <c r="H67" t="n">
-        <v>-5855.25752537023</v>
+        <v>-8167.2691173949</v>
       </c>
       <c r="I67" t="n">
-        <v>57920.1829347129</v>
+        <v>58088.8752746951</v>
       </c>
       <c r="J67" t="n">
-        <v>224136.713285639</v>
+        <v>224145.226539934</v>
       </c>
       <c r="K67" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68">
@@ -5942,31 +6246,31 @@
         <v>20.7446089013393</v>
       </c>
       <c r="C68" t="n">
-        <v>-127724.618211806</v>
+        <v>-120279.785696171</v>
       </c>
       <c r="D68" t="n">
-        <v>55368.6698554677</v>
+        <v>56577.7823090287</v>
       </c>
       <c r="E68" t="n">
-        <v>251681.329173453</v>
+        <v>261086.777027851</v>
       </c>
       <c r="F68" t="n">
         <v>224134.665205098</v>
       </c>
       <c r="G68" t="n">
-        <v>-27546.6639683542</v>
+        <v>-36952.1118227521</v>
       </c>
       <c r="H68" t="n">
-        <v>-5260.39303745014</v>
+        <v>-7711.21052491482</v>
       </c>
       <c r="I68" t="n">
-        <v>50108.2768180175</v>
+        <v>48866.5717841138</v>
       </c>
       <c r="J68" t="n">
-        <v>224136.713285639</v>
+        <v>224145.226539934</v>
       </c>
       <c r="K68" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69">
@@ -5977,31 +6281,31 @@
         <v>22.4474063888097</v>
       </c>
       <c r="C69" t="n">
-        <v>-127724.618211806</v>
+        <v>-120279.785696171</v>
       </c>
       <c r="D69" t="n">
-        <v>65392.145006917</v>
+        <v>68117.3884680255</v>
       </c>
       <c r="E69" t="n">
-        <v>251681.329173453</v>
+        <v>261086.777027851</v>
       </c>
       <c r="F69" t="n">
         <v>224134.665205098</v>
       </c>
       <c r="G69" t="n">
-        <v>-27546.6639683542</v>
+        <v>-36952.1118227521</v>
       </c>
       <c r="H69" t="n">
-        <v>-7322.18593061673</v>
+        <v>-9847.44753408335</v>
       </c>
       <c r="I69" t="n">
-        <v>58069.9590763002</v>
+        <v>58269.9409339422</v>
       </c>
       <c r="J69" t="n">
-        <v>224136.713285639</v>
+        <v>224145.226539934</v>
       </c>
       <c r="K69" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70">
@@ -6012,31 +6316,31 @@
         <v>23.697173383041</v>
       </c>
       <c r="C70" t="n">
-        <v>-131987.875705509</v>
+        <v>-129989.135511947</v>
       </c>
       <c r="D70" t="n">
-        <v>71877.3443855308</v>
+        <v>74709.3163093038</v>
       </c>
       <c r="E70" t="n">
-        <v>280915.853567879</v>
+        <v>291246.41788008</v>
       </c>
       <c r="F70" t="n">
         <v>227861.27860613</v>
       </c>
       <c r="G70" t="n">
-        <v>-53054.5749617486</v>
+        <v>-63385.1392739501</v>
       </c>
       <c r="H70" t="n">
-        <v>-12040.63620487</v>
+        <v>-14575.9801449005</v>
       </c>
       <c r="I70" t="n">
-        <v>59836.7081806608</v>
+        <v>60133.3361644033</v>
       </c>
       <c r="J70" t="n">
-        <v>227863.479141652</v>
+        <v>227872.890471002</v>
       </c>
       <c r="K70" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71">
@@ -6047,31 +6351,31 @@
         <v>23.7909819053948</v>
       </c>
       <c r="C71" t="n">
-        <v>-131987.875705509</v>
+        <v>-129989.135511947</v>
       </c>
       <c r="D71" t="n">
-        <v>72429.5459243084</v>
+        <v>75345.0427596222</v>
       </c>
       <c r="E71" t="n">
-        <v>280915.853567879</v>
+        <v>291246.41788008</v>
       </c>
       <c r="F71" t="n">
         <v>227861.27860613</v>
       </c>
       <c r="G71" t="n">
-        <v>-53054.5749617486</v>
+        <v>-63385.1392739501</v>
       </c>
       <c r="H71" t="n">
-        <v>-14416.9992752459</v>
+        <v>-16974.353872175</v>
       </c>
       <c r="I71" t="n">
-        <v>58012.5466490625</v>
+        <v>58370.6888874472</v>
       </c>
       <c r="J71" t="n">
-        <v>227863.479141652</v>
+        <v>227872.890471002</v>
       </c>
       <c r="K71" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72">
@@ -6082,31 +6386,31 @@
         <v>21.7619159153809</v>
       </c>
       <c r="C72" t="n">
-        <v>-131987.875705509</v>
+        <v>-129989.135511947</v>
       </c>
       <c r="D72" t="n">
-        <v>60485.4993296839</v>
+        <v>61594.3633231848</v>
       </c>
       <c r="E72" t="n">
-        <v>280915.853567879</v>
+        <v>291246.41788008</v>
       </c>
       <c r="F72" t="n">
         <v>227861.27860613</v>
       </c>
       <c r="G72" t="n">
-        <v>-53054.5749617486</v>
+        <v>-63385.1392739501</v>
       </c>
       <c r="H72" t="n">
-        <v>-14451.2751417445</v>
+        <v>-17042.5687159068</v>
       </c>
       <c r="I72" t="n">
-        <v>46034.2241879394</v>
+        <v>44551.794607278</v>
       </c>
       <c r="J72" t="n">
-        <v>227863.479141652</v>
+        <v>227872.890471002</v>
       </c>
       <c r="K72" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73">
@@ -6117,31 +6421,31 @@
         <v>24.418508207518</v>
       </c>
       <c r="C73" t="n">
-        <v>-131987.875705509</v>
+        <v>-129989.135511947</v>
       </c>
       <c r="D73" t="n">
-        <v>76123.4639283553</v>
+        <v>79597.6954879692</v>
       </c>
       <c r="E73" t="n">
-        <v>280915.853567879</v>
+        <v>291246.41788008</v>
       </c>
       <c r="F73" t="n">
         <v>227861.27860613</v>
       </c>
       <c r="G73" t="n">
-        <v>-53054.5749617486</v>
+        <v>-63385.1392739501</v>
       </c>
       <c r="H73" t="n">
-        <v>-12143.4638043657</v>
+        <v>-14780.624676096</v>
       </c>
       <c r="I73" t="n">
-        <v>63980.0001239897</v>
+        <v>64817.0708118732</v>
       </c>
       <c r="J73" t="n">
-        <v>227863.479141652</v>
+        <v>227872.890471002</v>
       </c>
       <c r="K73" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74">
@@ -6152,31 +6456,31 @@
         <v>23.6932818309947</v>
       </c>
       <c r="C74" t="n">
-        <v>-160981.878768104</v>
+        <v>-163932.394242563</v>
       </c>
       <c r="D74" t="n">
-        <v>65927.2928707299</v>
+        <v>68119.1231836082</v>
       </c>
       <c r="E74" t="n">
-        <v>294477.027774346</v>
+        <v>307898.234056188</v>
       </c>
       <c r="F74" t="n">
         <v>239389</v>
       </c>
       <c r="G74" t="n">
-        <v>-55088.0277743458</v>
+        <v>-68509.2340561878</v>
       </c>
       <c r="H74" t="n">
-        <v>-7493.56526310948</v>
+        <v>-10188.5217527425</v>
       </c>
       <c r="I74" t="n">
-        <v>58433.7276076204</v>
+        <v>57930.6014308657</v>
       </c>
       <c r="J74" t="n">
-        <v>239392.237367155</v>
+        <v>239404.284449907</v>
       </c>
       <c r="K74" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75">
@@ -6187,31 +6491,31 @@
         <v>23.1865842158533</v>
       </c>
       <c r="C75" t="n">
-        <v>-160981.878768104</v>
+        <v>-163932.394242563</v>
       </c>
       <c r="D75" t="n">
-        <v>62944.6299339801</v>
+        <v>64685.3085559386</v>
       </c>
       <c r="E75" t="n">
-        <v>294477.027774346</v>
+        <v>307898.234056188</v>
       </c>
       <c r="F75" t="n">
         <v>239389</v>
       </c>
       <c r="G75" t="n">
-        <v>-55088.0277743458</v>
+        <v>-68509.2340561878</v>
       </c>
       <c r="H75" t="n">
-        <v>-8144.65878208233</v>
+        <v>-11125.6668429322</v>
       </c>
       <c r="I75" t="n">
-        <v>54799.9711518977</v>
+        <v>53559.6417130063</v>
       </c>
       <c r="J75" t="n">
-        <v>239392.237367155</v>
+        <v>239404.284449907</v>
       </c>
       <c r="K75" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76">
@@ -6222,31 +6526,31 @@
         <v>25.2577942325929</v>
       </c>
       <c r="C76" t="n">
-        <v>-160981.878768104</v>
+        <v>-163932.394242563</v>
       </c>
       <c r="D76" t="n">
-        <v>75136.7562960318</v>
+        <v>78721.5918142911</v>
       </c>
       <c r="E76" t="n">
-        <v>294477.027774346</v>
+        <v>307898.234056188</v>
       </c>
       <c r="F76" t="n">
         <v>239389</v>
       </c>
       <c r="G76" t="n">
-        <v>-55088.0277743458</v>
+        <v>-68509.2340561878</v>
       </c>
       <c r="H76" t="n">
-        <v>-14096.7443612842</v>
+        <v>-17592.0599466652</v>
       </c>
       <c r="I76" t="n">
-        <v>61040.0119347476</v>
+        <v>61129.5318676259</v>
       </c>
       <c r="J76" t="n">
-        <v>239392.237367155</v>
+        <v>239404.284449907</v>
       </c>
       <c r="K76" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77">
@@ -6257,31 +6561,31 @@
         <v>27.8623397205592</v>
       </c>
       <c r="C77" t="n">
-        <v>-160981.878768104</v>
+        <v>-163932.394242563</v>
       </c>
       <c r="D77" t="n">
-        <v>90468.3486736041</v>
+        <v>96372.2105023499</v>
       </c>
       <c r="E77" t="n">
-        <v>294477.027774346</v>
+        <v>307898.234056188</v>
       </c>
       <c r="F77" t="n">
         <v>239389</v>
       </c>
       <c r="G77" t="n">
-        <v>-55088.0277743458</v>
+        <v>-68509.2340561878</v>
       </c>
       <c r="H77" t="n">
-        <v>-25349.8220007151</v>
+        <v>-29587.7010639413</v>
       </c>
       <c r="I77" t="n">
-        <v>65118.526672889</v>
+        <v>66784.5094384085</v>
       </c>
       <c r="J77" t="n">
-        <v>239392.237367155</v>
+        <v>239404.284449907</v>
       </c>
       <c r="K77" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78">
@@ -6292,31 +6596,31 @@
         <v>26.3851917433467</v>
       </c>
       <c r="C78" t="n">
-        <v>-186723.907541732</v>
+        <v>-195311.771642163</v>
       </c>
       <c r="D78" t="n">
-        <v>76510.7996556652</v>
+        <v>80293.7707711117</v>
       </c>
       <c r="E78" t="n">
-        <v>357043.347590663</v>
+        <v>379889.413618385</v>
       </c>
       <c r="F78" t="n">
         <v>265671</v>
       </c>
       <c r="G78" t="n">
-        <v>-91372.3475906629</v>
+        <v>-114218.413618385</v>
       </c>
       <c r="H78" t="n">
-        <v>-41903.891700375</v>
+        <v>-47112.5901947607</v>
       </c>
       <c r="I78" t="n">
-        <v>34606.9079552902</v>
+        <v>33181.180576351</v>
       </c>
       <c r="J78" t="n">
-        <v>265675.157907504</v>
+        <v>265689.679628689</v>
       </c>
       <c r="K78" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79">
@@ -6327,31 +6631,31 @@
         <v>27.1759284750954</v>
       </c>
       <c r="C79" t="n">
-        <v>-186723.907541732</v>
+        <v>-195311.771642163</v>
       </c>
       <c r="D79" t="n">
-        <v>81165.4518032885</v>
+        <v>85652.47638759</v>
       </c>
       <c r="E79" t="n">
-        <v>357043.347590663</v>
+        <v>379889.413618385</v>
       </c>
       <c r="F79" t="n">
         <v>265671</v>
       </c>
       <c r="G79" t="n">
-        <v>-91372.3475906629</v>
+        <v>-114218.413618385</v>
       </c>
       <c r="H79" t="n">
-        <v>-40900.7818684049</v>
+        <v>-46697.4831681539</v>
       </c>
       <c r="I79" t="n">
-        <v>40264.6699348837</v>
+        <v>38954.9932194362</v>
       </c>
       <c r="J79" t="n">
-        <v>265675.157907504</v>
+        <v>265689.679628689</v>
       </c>
       <c r="K79" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80">
@@ -6362,31 +6666,31 @@
         <v>29.7979194213777</v>
       </c>
       <c r="C80" t="n">
-        <v>-186723.907541732</v>
+        <v>-195311.771642163</v>
       </c>
       <c r="D80" t="n">
-        <v>96599.7364382919</v>
+        <v>103421.320360635</v>
       </c>
       <c r="E80" t="n">
-        <v>357043.347590663</v>
+        <v>379889.413618385</v>
       </c>
       <c r="F80" t="n">
         <v>265671</v>
       </c>
       <c r="G80" t="n">
-        <v>-91372.3475906629</v>
+        <v>-114218.413618385</v>
       </c>
       <c r="H80" t="n">
-        <v>-22340.4925048047</v>
+        <v>-28342.3799841208</v>
       </c>
       <c r="I80" t="n">
-        <v>74259.2439334872</v>
+        <v>75078.9403765142</v>
       </c>
       <c r="J80" t="n">
-        <v>265675.157907504</v>
+        <v>265689.679628689</v>
       </c>
       <c r="K80" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81">
@@ -6397,31 +6701,31 @@
         <v>30.8456811231635</v>
       </c>
       <c r="C81" t="n">
-        <v>-186723.907541732</v>
+        <v>-195311.771642163</v>
       </c>
       <c r="D81" t="n">
-        <v>102767.359693417</v>
+        <v>110521.846099049</v>
       </c>
       <c r="E81" t="n">
-        <v>357043.347590663</v>
+        <v>379889.413618385</v>
       </c>
       <c r="F81" t="n">
         <v>265671</v>
       </c>
       <c r="G81" t="n">
-        <v>-91372.3475906629</v>
+        <v>-114218.413618385</v>
       </c>
       <c r="H81" t="n">
-        <v>13776.9763904256</v>
+        <v>7952.71935733843</v>
       </c>
       <c r="I81" t="n">
-        <v>116544.336083843</v>
+        <v>118474.565456387</v>
       </c>
       <c r="J81" t="n">
-        <v>265675.157907504</v>
+        <v>265689.679628689</v>
       </c>
       <c r="K81" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82">
@@ -6432,31 +6736,31 @@
         <v>28.3199367135976</v>
       </c>
       <c r="C82" t="n">
-        <v>-244057.643792647</v>
+        <v>-265293.058621092</v>
       </c>
       <c r="D82" t="n">
-        <v>76179.0900602851</v>
+        <v>79872.5306205628</v>
       </c>
       <c r="E82" t="n">
-        <v>307372.707461284</v>
+        <v>322548.263524041</v>
       </c>
       <c r="F82" t="n">
         <v>671007.808480106</v>
       </c>
       <c r="G82" t="n">
-        <v>363635.101018822</v>
+        <v>348459.544956065</v>
       </c>
       <c r="H82" t="n">
-        <v>67451.6248172859</v>
+        <v>62187.8148562239</v>
       </c>
       <c r="I82" t="n">
-        <v>143630.714877571</v>
+        <v>142060.345476787</v>
       </c>
       <c r="J82" t="n">
-        <v>671014.016654045</v>
+        <v>671034.059928262</v>
       </c>
       <c r="K82" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83">
@@ -6467,31 +6771,31 @@
         <v>27.291562099305</v>
       </c>
       <c r="C83" t="n">
-        <v>-244057.643792647</v>
+        <v>-265293.058621092</v>
       </c>
       <c r="D83" t="n">
-        <v>70125.588414557</v>
+        <v>72903.3883002527</v>
       </c>
       <c r="E83" t="n">
-        <v>307372.707461284</v>
+        <v>322548.263524041</v>
       </c>
       <c r="F83" t="n">
         <v>671007.808480106</v>
       </c>
       <c r="G83" t="n">
-        <v>363635.101018822</v>
+        <v>348459.544956065</v>
       </c>
       <c r="H83" t="n">
-        <v>98304.9651803918</v>
+        <v>93855.3067537106</v>
       </c>
       <c r="I83" t="n">
-        <v>168430.553594949</v>
+        <v>166758.695053963</v>
       </c>
       <c r="J83" t="n">
-        <v>671014.016654045</v>
+        <v>671034.059928262</v>
       </c>
       <c r="K83" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84">
@@ -6502,31 +6806,31 @@
         <v>27.9939672419872</v>
       </c>
       <c r="C84" t="n">
-        <v>-244057.643792647</v>
+        <v>-265293.058621092</v>
       </c>
       <c r="D84" t="n">
-        <v>74260.2788552773</v>
+        <v>77663.4838314301</v>
       </c>
       <c r="E84" t="n">
-        <v>307372.707461284</v>
+        <v>322548.263524041</v>
       </c>
       <c r="F84" t="n">
         <v>671007.808480106</v>
       </c>
       <c r="G84" t="n">
-        <v>363635.101018822</v>
+        <v>348459.544956065</v>
       </c>
       <c r="H84" t="n">
-        <v>106336.997479743</v>
+        <v>102955.195049799</v>
       </c>
       <c r="I84" t="n">
-        <v>180597.27633502</v>
+        <v>180618.678881229</v>
       </c>
       <c r="J84" t="n">
-        <v>671014.016654045</v>
+        <v>671034.059928262</v>
       </c>
       <c r="K84" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
@@ -6537,31 +6841,31 @@
         <v>30.1255435904953</v>
       </c>
       <c r="C85" t="n">
-        <v>-244057.643792647</v>
+        <v>-265293.058621092</v>
       </c>
       <c r="D85" t="n">
-        <v>86807.7501311649</v>
+        <v>92108.8607717952</v>
       </c>
       <c r="E85" t="n">
-        <v>307372.707461284</v>
+        <v>322548.263524041</v>
       </c>
       <c r="F85" t="n">
         <v>671007.808480106</v>
       </c>
       <c r="G85" t="n">
-        <v>363635.101018822</v>
+        <v>348459.544956065</v>
       </c>
       <c r="H85" t="n">
-        <v>91547.7217153403</v>
+        <v>89487.4797444881</v>
       </c>
       <c r="I85" t="n">
-        <v>178355.471846505</v>
+        <v>181596.340516283</v>
       </c>
       <c r="J85" t="n">
-        <v>671014.016654045</v>
+        <v>671034.059928262</v>
       </c>
       <c r="K85" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86">
@@ -6572,31 +6876,31 @@
         <v>28.3958802543955</v>
       </c>
       <c r="C86" t="n">
-        <v>164067.653425051</v>
+        <v>143254.019882576</v>
       </c>
       <c r="D86" t="n">
-        <v>160057.775933156</v>
+        <v>159390.497567951</v>
       </c>
       <c r="E86" t="n">
-        <v>648646.01447412</v>
+        <v>647249.723752738</v>
       </c>
       <c r="F86" t="n">
         <v>741744.893030347</v>
       </c>
       <c r="G86" t="n">
-        <v>93098.8785562267</v>
+        <v>94495.1692776084</v>
       </c>
       <c r="H86" t="n">
-        <v>53937.1378871828</v>
+        <v>53452.1608377788</v>
       </c>
       <c r="I86" t="n">
-        <v>213994.913820338</v>
+        <v>212842.65840573</v>
       </c>
       <c r="J86" t="n">
-        <v>741736.506558039</v>
+        <v>741726.940594063</v>
       </c>
       <c r="K86" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87">
@@ -6607,31 +6911,31 @@
         <v>27.5791815217975</v>
       </c>
       <c r="C87" t="n">
-        <v>164067.653425051</v>
+        <v>143254.019882576</v>
       </c>
       <c r="D87" t="n">
-        <v>155250.299111835</v>
+        <v>153855.851320185</v>
       </c>
       <c r="E87" t="n">
-        <v>648646.01447412</v>
+        <v>647249.723752738</v>
       </c>
       <c r="F87" t="n">
         <v>741744.893030347</v>
       </c>
       <c r="G87" t="n">
-        <v>93098.8785562267</v>
+        <v>94495.1692776084</v>
       </c>
       <c r="H87" t="n">
-        <v>26627.0984094387</v>
+        <v>27104.890624116</v>
       </c>
       <c r="I87" t="n">
-        <v>181877.397521274</v>
+        <v>180960.741944301</v>
       </c>
       <c r="J87" t="n">
-        <v>741736.506558039</v>
+        <v>741726.940594063</v>
       </c>
       <c r="K87" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88">
@@ -6642,31 +6946,31 @@
         <v>28.596445544594</v>
       </c>
       <c r="C88" t="n">
-        <v>164067.653425051</v>
+        <v>143254.019882576</v>
       </c>
       <c r="D88" t="n">
-        <v>161238.398536454</v>
+        <v>160749.698808901</v>
       </c>
       <c r="E88" t="n">
-        <v>648646.01447412</v>
+        <v>647249.723752738</v>
       </c>
       <c r="F88" t="n">
         <v>741744.893030347</v>
       </c>
       <c r="G88" t="n">
-        <v>93098.8785562267</v>
+        <v>94495.1692776084</v>
       </c>
       <c r="H88" t="n">
-        <v>9617.6032821078</v>
+        <v>10445.6691034997</v>
       </c>
       <c r="I88" t="n">
-        <v>170856.001818562</v>
+        <v>171195.3679124</v>
       </c>
       <c r="J88" t="n">
-        <v>741736.506558039</v>
+        <v>741726.940594063</v>
       </c>
       <c r="K88" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89">
@@ -6677,31 +6981,31 @@
         <v>30.4415467331331</v>
       </c>
       <c r="C89" t="n">
-        <v>164067.653425051</v>
+        <v>143254.019882576</v>
       </c>
       <c r="D89" t="n">
-        <v>172099.540892675</v>
+        <v>173253.676055701</v>
       </c>
       <c r="E89" t="n">
-        <v>648646.01447412</v>
+        <v>647249.723752738</v>
       </c>
       <c r="F89" t="n">
         <v>741744.893030347</v>
       </c>
       <c r="G89" t="n">
-        <v>93098.8785562267</v>
+        <v>94495.1692776084</v>
       </c>
       <c r="H89" t="n">
-        <v>2908.65250519025</v>
+        <v>3474.49627592991</v>
       </c>
       <c r="I89" t="n">
-        <v>175008.193397866</v>
+        <v>176728.172331631</v>
       </c>
       <c r="J89" t="n">
-        <v>741736.506558039</v>
+        <v>741726.940594063</v>
       </c>
       <c r="K89" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90">
@@ -6712,31 +7016,31 @@
         <v>29.785657601326</v>
       </c>
       <c r="C90" t="n">
-        <v>227258.015381112</v>
+        <v>205302.879519579</v>
       </c>
       <c r="D90" t="n">
-        <v>181156.453425713</v>
+        <v>180807.589467063</v>
       </c>
       <c r="E90" t="n">
-        <v>750332.158619858</v>
+        <v>752824.993625563</v>
       </c>
       <c r="F90" t="n">
         <v>795808.075131065</v>
       </c>
       <c r="G90" t="n">
-        <v>45475.9165112061</v>
+        <v>42983.0815055014</v>
       </c>
       <c r="H90" t="n">
-        <v>6500.24607868599</v>
+        <v>6191.37214140666</v>
       </c>
       <c r="I90" t="n">
-        <v>187656.699504399</v>
+        <v>186998.96160847</v>
       </c>
       <c r="J90" t="n">
-        <v>795797.428958157</v>
+        <v>795783.409146292</v>
       </c>
       <c r="K90" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91">
@@ -6747,31 +7051,31 @@
         <v>30.0660556110785</v>
       </c>
       <c r="C91" t="n">
-        <v>227258.015381112</v>
+        <v>205302.879519579</v>
       </c>
       <c r="D91" t="n">
-        <v>182807.009351447</v>
+        <v>182707.805214455</v>
       </c>
       <c r="E91" t="n">
-        <v>750332.158619858</v>
+        <v>752824.993625563</v>
       </c>
       <c r="F91" t="n">
         <v>795808.075131065</v>
       </c>
       <c r="G91" t="n">
-        <v>45475.9165112061</v>
+        <v>42983.0815055014</v>
       </c>
       <c r="H91" t="n">
-        <v>9883.31211043974</v>
+        <v>9097.4151831076</v>
       </c>
       <c r="I91" t="n">
-        <v>192690.321461887</v>
+        <v>191805.220397562</v>
       </c>
       <c r="J91" t="n">
-        <v>795797.428958157</v>
+        <v>795783.409146292</v>
       </c>
       <c r="K91" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92">
@@ -6782,31 +7086,31 @@
         <v>30.6000332292611</v>
       </c>
       <c r="C92" t="n">
-        <v>227258.015381112</v>
+        <v>205302.879519579</v>
       </c>
       <c r="D92" t="n">
-        <v>185950.255349088</v>
+        <v>186326.492378893</v>
       </c>
       <c r="E92" t="n">
-        <v>750332.158619858</v>
+        <v>752824.993625563</v>
       </c>
       <c r="F92" t="n">
         <v>795808.075131065</v>
       </c>
       <c r="G92" t="n">
-        <v>45475.9165112061</v>
+        <v>42983.0815055014</v>
       </c>
       <c r="H92" t="n">
-        <v>13057.8506004515</v>
+        <v>12192.6254010327</v>
       </c>
       <c r="I92" t="n">
-        <v>199008.105949539</v>
+        <v>198519.117779926</v>
       </c>
       <c r="J92" t="n">
-        <v>795797.428958157</v>
+        <v>795783.409146292</v>
       </c>
       <c r="K92" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93">
@@ -6817,31 +7121,31 @@
         <v>33.0579022756853</v>
       </c>
       <c r="C93" t="n">
-        <v>227258.015381112</v>
+        <v>205302.879519579</v>
       </c>
       <c r="D93" t="n">
-        <v>200418.440493611</v>
+        <v>202983.106565152</v>
       </c>
       <c r="E93" t="n">
-        <v>750332.158619858</v>
+        <v>752824.993625563</v>
       </c>
       <c r="F93" t="n">
         <v>795808.075131065</v>
       </c>
       <c r="G93" t="n">
-        <v>45475.9165112061</v>
+        <v>42983.0815055014</v>
       </c>
       <c r="H93" t="n">
-        <v>16023.8615487212</v>
+        <v>15477.002795182</v>
       </c>
       <c r="I93" t="n">
-        <v>216442.302042332</v>
+        <v>218460.109360334</v>
       </c>
       <c r="J93" t="n">
-        <v>795797.428958157</v>
+        <v>795783.409146292</v>
       </c>
       <c r="K93" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94">
@@ -6852,31 +7156,31 @@
         <v>31.581418485133</v>
       </c>
       <c r="C94" t="n">
-        <v>231306.203856629</v>
+        <v>201785.899075961</v>
       </c>
       <c r="D94" t="n">
-        <v>192554.712502711</v>
+        <v>192297.09423425</v>
       </c>
       <c r="E94" t="n">
-        <v>755898.649631105</v>
+        <v>752702.131398079</v>
       </c>
       <c r="F94" t="n">
         <v>840686.012311925</v>
       </c>
       <c r="G94" t="n">
-        <v>84787.36268082</v>
+        <v>87983.8809138469</v>
       </c>
       <c r="H94" t="n">
-        <v>18781.344955249</v>
+        <v>18950.5473655555</v>
       </c>
       <c r="I94" t="n">
-        <v>211336.05745796</v>
+        <v>211247.641599806</v>
       </c>
       <c r="J94" t="n">
-        <v>840675.221374949</v>
+        <v>840661.726856608</v>
       </c>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95">
@@ -6887,31 +7191,31 @@
         <v>31.8325085481025</v>
       </c>
       <c r="C95" t="n">
-        <v>231306.203856629</v>
+        <v>201785.899075961</v>
       </c>
       <c r="D95" t="n">
-        <v>194032.747927046</v>
+        <v>193998.694370746</v>
       </c>
       <c r="E95" t="n">
-        <v>755898.649631105</v>
+        <v>752702.131398079</v>
       </c>
       <c r="F95" t="n">
         <v>840686.012311925</v>
       </c>
       <c r="G95" t="n">
-        <v>84787.36268082</v>
+        <v>87983.8809138469</v>
       </c>
       <c r="H95" t="n">
-        <v>20849.4575101448</v>
+        <v>21555.7057933357</v>
       </c>
       <c r="I95" t="n">
-        <v>214882.20543719</v>
+        <v>215554.400164082</v>
       </c>
       <c r="J95" t="n">
-        <v>840675.221374949</v>
+        <v>840661.726856608</v>
       </c>
       <c r="K95" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96">
@@ -6922,31 +7226,31 @@
         <v>30.3816372911632</v>
       </c>
       <c r="C96" t="n">
-        <v>231306.203856629</v>
+        <v>201785.899075961</v>
       </c>
       <c r="D96" t="n">
-        <v>185492.230279532</v>
+        <v>184166.354931862</v>
       </c>
       <c r="E96" t="n">
-        <v>755898.649631105</v>
+        <v>752702.131398079</v>
       </c>
       <c r="F96" t="n">
         <v>840686.012311925</v>
       </c>
       <c r="G96" t="n">
-        <v>84787.36268082</v>
+        <v>87983.8809138469</v>
       </c>
       <c r="H96" t="n">
-        <v>22228.1992134087</v>
+        <v>23292.4780785224</v>
       </c>
       <c r="I96" t="n">
-        <v>207720.42949294</v>
+        <v>207458.833010384</v>
       </c>
       <c r="J96" t="n">
-        <v>840675.221374949</v>
+        <v>840661.726856608</v>
       </c>
       <c r="K96" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97">
@@ -6957,31 +7261,31 @@
         <v>30.0973803622318</v>
       </c>
       <c r="C97" t="n">
-        <v>231306.203856629</v>
+        <v>201785.899075961</v>
       </c>
       <c r="D97" t="n">
-        <v>183818.958921818</v>
+        <v>182239.98786122</v>
       </c>
       <c r="E97" t="n">
-        <v>755898.649631105</v>
+        <v>752702.131398079</v>
       </c>
       <c r="F97" t="n">
         <v>840686.012311925</v>
       </c>
       <c r="G97" t="n">
-        <v>84787.36268082</v>
+        <v>87983.8809138469</v>
       </c>
       <c r="H97" t="n">
-        <v>22917.5700650406</v>
+        <v>24160.8642211158</v>
       </c>
       <c r="I97" t="n">
-        <v>206736.528986858</v>
+        <v>206400.852082336</v>
       </c>
       <c r="J97" t="n">
-        <v>840675.221374949</v>
+        <v>840661.726856608</v>
       </c>
       <c r="K97" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -7003,13 +7307,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2">
@@ -7017,13 +7321,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>19880.845533069</v>
+        <v>19993.003090287</v>
       </c>
       <c r="C2" t="n">
         <v>11.1469028155255</v>
       </c>
       <c r="D2" t="n">
-        <v>-8096.19982470883</v>
+        <v>10614.6369062025</v>
       </c>
     </row>
     <row r="3">
@@ -7031,13 +7335,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>23505.5278967257</v>
+        <v>23774.7264613703</v>
       </c>
       <c r="C3" t="n">
         <v>11.6813206587827</v>
       </c>
       <c r="D3" t="n">
-        <v>-8096.19982470883</v>
+        <v>10614.6369062025</v>
       </c>
     </row>
     <row r="4">
@@ -7045,13 +7349,13 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>25269.2858327597</v>
+        <v>25022.8243890762</v>
       </c>
       <c r="C4" t="n">
         <v>11.8182562487431</v>
       </c>
       <c r="D4" t="n">
-        <v>-8096.19982470883</v>
+        <v>10614.6369062025</v>
       </c>
     </row>
     <row r="5">
@@ -7059,13 +7363,13 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>33766.2275236044</v>
+        <v>33631.3328454254</v>
       </c>
       <c r="C5" t="n">
         <v>13.0176848533636</v>
       </c>
       <c r="D5" t="n">
-        <v>-8096.19982470883</v>
+        <v>10614.6369062025</v>
       </c>
     </row>
     <row r="6">
@@ -7073,13 +7377,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30444.9586277968</v>
+        <v>32290.6298045796</v>
       </c>
       <c r="C6" t="n">
         <v>12.3892763792865</v>
       </c>
       <c r="D6" t="n">
-        <v>-15617.4243598121</v>
+        <v>22393.3138253895</v>
       </c>
     </row>
     <row r="7">
@@ -7087,13 +7391,13 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>30075.8015295181</v>
+        <v>30716.9155472675</v>
       </c>
       <c r="C7" t="n">
         <v>12.2749895402599</v>
       </c>
       <c r="D7" t="n">
-        <v>-15617.4243598121</v>
+        <v>22393.3138253895</v>
       </c>
     </row>
     <row r="8">
@@ -7101,13 +7405,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>25592.8273718718</v>
+        <v>24823.3023031939</v>
       </c>
       <c r="C8" t="n">
         <v>11.7356560380167</v>
       </c>
       <c r="D8" t="n">
-        <v>-15617.4243598121</v>
+        <v>22393.3138253895</v>
       </c>
     </row>
     <row r="9">
@@ -7115,13 +7419,13 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>21399.5796812884</v>
+        <v>19679.4048747319</v>
       </c>
       <c r="C9" t="n">
         <v>11.5193540330228</v>
       </c>
       <c r="D9" t="n">
-        <v>-15617.4243598121</v>
+        <v>22393.3138253895</v>
       </c>
     </row>
     <row r="10">
@@ -7129,13 +7433,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>27679.6061236615</v>
+        <v>26814.4478328184</v>
       </c>
       <c r="C10" t="n">
         <v>13.2313468461927</v>
       </c>
       <c r="D10" t="n">
-        <v>-12025.8900476515</v>
+        <v>25757.702908449</v>
       </c>
     </row>
     <row r="11">
@@ -7143,13 +7447,13 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>30335.9421049164</v>
+        <v>30002.3966328121</v>
       </c>
       <c r="C11" t="n">
         <v>14.1226585458536</v>
       </c>
       <c r="D11" t="n">
-        <v>-12025.8900476515</v>
+        <v>25757.702908449</v>
       </c>
     </row>
     <row r="12">
@@ -7157,13 +7461,13 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>30459.9289905766</v>
+        <v>30305.0004204775</v>
       </c>
       <c r="C12" t="n">
         <v>14.2539598031749</v>
       </c>
       <c r="D12" t="n">
-        <v>-12025.8900476515</v>
+        <v>25757.702908449</v>
       </c>
     </row>
     <row r="13">
@@ -7171,13 +7475,13 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>39157.0251813274</v>
+        <v>40507.5072482827</v>
       </c>
       <c r="C13" t="n">
         <v>15.5118564485863</v>
       </c>
       <c r="D13" t="n">
-        <v>-12025.8900476515</v>
+        <v>25757.702908449</v>
       </c>
     </row>
     <row r="14">
@@ -7185,13 +7489,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>39003.0973323537</v>
+        <v>40394.7942635931</v>
       </c>
       <c r="C14" t="n">
         <v>16.1184436592147</v>
       </c>
       <c r="D14" t="n">
-        <v>-46065.2100801856</v>
+        <v>-16473.5675197421</v>
       </c>
     </row>
     <row r="15">
@@ -7199,13 +7503,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>43110.2027228608</v>
+        <v>45207.8195975839</v>
       </c>
       <c r="C15" t="n">
         <v>16.415677221503</v>
       </c>
       <c r="D15" t="n">
-        <v>-46065.2100801856</v>
+        <v>-16473.5675197421</v>
       </c>
     </row>
     <row r="16">
@@ -7213,13 +7517,13 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>19913.8235703929</v>
+        <v>18452.2294042073</v>
       </c>
       <c r="C16" t="n">
         <v>12.2234703618602</v>
       </c>
       <c r="D16" t="n">
-        <v>-46065.2100801856</v>
+        <v>-16473.5675197421</v>
       </c>
     </row>
     <row r="17">
@@ -7227,13 +7531,13 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>17400.9581795719</v>
+        <v>15373.4403499291</v>
       </c>
       <c r="C17" t="n">
         <v>11.6938999707585</v>
       </c>
       <c r="D17" t="n">
-        <v>-46065.2100801856</v>
+        <v>-16473.5675197421</v>
       </c>
     </row>
     <row r="18">
@@ -7241,13 +7545,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>37635.2407421233</v>
+        <v>38641.5815881064</v>
       </c>
       <c r="C18" t="n">
         <v>15.3258805423762</v>
       </c>
       <c r="D18" t="n">
-        <v>-50336.7374357869</v>
+        <v>-20150.0291106937</v>
       </c>
     </row>
     <row r="19">
@@ -7255,13 +7559,13 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>34412.5099877478</v>
+        <v>34706.4279701726</v>
       </c>
       <c r="C19" t="n">
         <v>14.8733170138056</v>
       </c>
       <c r="D19" t="n">
-        <v>-50336.7374357869</v>
+        <v>-20150.0291106937</v>
       </c>
     </row>
     <row r="20">
@@ -7269,13 +7573,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>27701.4470934954</v>
+        <v>26851.4375944965</v>
       </c>
       <c r="C20" t="n">
         <v>13.8768502823917</v>
       </c>
       <c r="D20" t="n">
-        <v>-50336.7374357869</v>
+        <v>-20150.0291106937</v>
       </c>
     </row>
     <row r="21">
@@ -7283,13 +7587,13 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>30563.4362414694</v>
+        <v>30113.6337564402</v>
       </c>
       <c r="C21" t="n">
         <v>14.555360709698</v>
       </c>
       <c r="D21" t="n">
-        <v>-50336.7374357869</v>
+        <v>-20150.0291106937</v>
       </c>
     </row>
     <row r="22">
@@ -7297,13 +7601,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>31756.7218267835</v>
+        <v>31257.2668238474</v>
       </c>
       <c r="C22" t="n">
         <v>15.0667257975563</v>
       </c>
       <c r="D22" t="n">
-        <v>-52284.3672196516</v>
+        <v>-24038.6062413248</v>
       </c>
     </row>
     <row r="23">
@@ -7311,13 +7615,13 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>34500.1065474812</v>
+        <v>34544.0500657327</v>
       </c>
       <c r="C23" t="n">
         <v>15.6731164614357</v>
       </c>
       <c r="D23" t="n">
-        <v>-52284.3672196516</v>
+        <v>-24038.6062413248</v>
       </c>
     </row>
     <row r="24">
@@ -7325,13 +7629,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>34623.8911429985</v>
+        <v>34879.9954360815</v>
       </c>
       <c r="C24" t="n">
         <v>15.7338178579393</v>
       </c>
       <c r="D24" t="n">
-        <v>-52284.3672196516</v>
+        <v>-24038.6062413248</v>
       </c>
     </row>
     <row r="25">
@@ -7339,13 +7643,13 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>32545.7579422023</v>
+        <v>32745.9630659234</v>
       </c>
       <c r="C25" t="n">
         <v>15.3197862581617</v>
       </c>
       <c r="D25" t="n">
-        <v>-52284.3672196516</v>
+        <v>-24038.6062413248</v>
       </c>
     </row>
     <row r="26">
@@ -7353,13 +7657,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>26874.1360231449</v>
+        <v>26645.998971821</v>
       </c>
       <c r="C26" t="n">
         <v>14.7328890677592</v>
       </c>
       <c r="D26" t="n">
-        <v>-67783.8506675566</v>
+        <v>-42353.4941231444</v>
       </c>
     </row>
     <row r="27">
@@ -7367,13 +7671,13 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>27728.9267985344</v>
+        <v>27723.0929491571</v>
       </c>
       <c r="C27" t="n">
         <v>14.7581102218019</v>
       </c>
       <c r="D27" t="n">
-        <v>-67783.8506675566</v>
+        <v>-42353.4941231444</v>
       </c>
     </row>
     <row r="28">
@@ -7381,13 +7685,13 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>29279.7367617217</v>
+        <v>29371.0609133394</v>
       </c>
       <c r="C28" t="n">
         <v>14.9432457255233</v>
       </c>
       <c r="D28" t="n">
-        <v>-67783.8506675566</v>
+        <v>-42353.4941231444</v>
       </c>
     </row>
     <row r="29">
@@ -7395,13 +7699,13 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>32065.6123362944</v>
+        <v>32210.4843828163</v>
       </c>
       <c r="C29" t="n">
         <v>15.3798692978029</v>
       </c>
       <c r="D29" t="n">
-        <v>-67783.8506675566</v>
+        <v>-42353.4941231444</v>
       </c>
     </row>
     <row r="30">
@@ -7409,13 +7713,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>36704.5804602872</v>
+        <v>37538.250115497</v>
       </c>
       <c r="C30" t="n">
         <v>16.3753445128911</v>
       </c>
       <c r="D30" t="n">
-        <v>-73611.1814092702</v>
+        <v>-46418.4739477201</v>
       </c>
     </row>
     <row r="31">
@@ -7423,13 +7727,13 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>28905.1054071073</v>
+        <v>28182.1548170685</v>
       </c>
       <c r="C31" t="n">
         <v>15.0887588439557</v>
       </c>
       <c r="D31" t="n">
-        <v>-73611.1814092702</v>
+        <v>-46418.4739477201</v>
       </c>
     </row>
     <row r="32">
@@ -7437,13 +7741,13 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>30444.4944761275</v>
+        <v>29798.87646439</v>
       </c>
       <c r="C32" t="n">
         <v>15.4220345279437</v>
       </c>
       <c r="D32" t="n">
-        <v>-73611.1814092702</v>
+        <v>-46418.4739477201</v>
       </c>
     </row>
     <row r="33">
@@ -7451,13 +7755,13 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>37829.9628880842</v>
+        <v>38367.3185672874</v>
       </c>
       <c r="C33" t="n">
         <v>16.7818139661638</v>
       </c>
       <c r="D33" t="n">
-        <v>-73611.1814092702</v>
+        <v>-46418.4739477201</v>
       </c>
     </row>
     <row r="34">
@@ -7465,13 +7769,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>35354.6789850148</v>
+        <v>35340.6844892791</v>
       </c>
       <c r="C34" t="n">
         <v>16.6647643679365</v>
       </c>
       <c r="D34" t="n">
-        <v>-78361.1775105777</v>
+        <v>-54599.8367456007</v>
       </c>
     </row>
     <row r="35">
@@ -7479,13 +7783,13 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>30372.6126460615</v>
+        <v>29815.5928248601</v>
       </c>
       <c r="C35" t="n">
         <v>15.8762559792141</v>
       </c>
       <c r="D35" t="n">
-        <v>-78361.1775105777</v>
+        <v>-54599.8367456007</v>
       </c>
     </row>
     <row r="36">
@@ -7493,13 +7797,13 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>32785.3768790212</v>
+        <v>32727.1742454247</v>
       </c>
       <c r="C36" t="n">
         <v>16.2633429336138</v>
       </c>
       <c r="D36" t="n">
-        <v>-78361.1775105777</v>
+        <v>-54599.8367456007</v>
       </c>
     </row>
     <row r="37">
@@ -7507,13 +7811,13 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>36972.9851334023</v>
+        <v>37605.3741609582</v>
       </c>
       <c r="C37" t="n">
         <v>16.8712965733395</v>
       </c>
       <c r="D37" t="n">
-        <v>-78361.1775105777</v>
+        <v>-54599.8367456007</v>
       </c>
     </row>
     <row r="38">
@@ -7521,13 +7825,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>31138.2551024637</v>
+        <v>30951.7307328889</v>
       </c>
       <c r="C38" t="n">
         <v>16.0508175345883</v>
       </c>
       <c r="D38" t="n">
-        <v>-88578.1602945334</v>
+        <v>-66604.4357200165</v>
       </c>
     </row>
     <row r="39">
@@ -7535,13 +7839,13 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>31549.1320529431</v>
+        <v>31363.0055325216</v>
       </c>
       <c r="C39" t="n">
         <v>16.0463647623357</v>
       </c>
       <c r="D39" t="n">
-        <v>-88578.1602945334</v>
+        <v>-66604.4357200165</v>
       </c>
     </row>
     <row r="40">
@@ -7549,13 +7853,13 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>31809.7168760598</v>
+        <v>31559.0073226396</v>
       </c>
       <c r="C40" t="n">
         <v>16.1262140171378</v>
       </c>
       <c r="D40" t="n">
-        <v>-88578.1602945334</v>
+        <v>-66604.4357200165</v>
       </c>
     </row>
     <row r="41">
@@ -7563,13 +7867,13 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>38582.3967742008</v>
+        <v>39209.8628040778</v>
       </c>
       <c r="C41" t="n">
         <v>17.4221779704851</v>
       </c>
       <c r="D41" t="n">
-        <v>-88578.1602945334</v>
+        <v>-66604.4357200165</v>
       </c>
     </row>
     <row r="42">
@@ -7577,13 +7881,13 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>31749.9441383235</v>
+        <v>31254.2043828357</v>
       </c>
       <c r="C42" t="n">
         <v>16.5941465714623</v>
       </c>
       <c r="D42" t="n">
-        <v>-90807.5805352537</v>
+        <v>-68807.0684741327</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7895,13 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>29165.2419685893</v>
+        <v>28198.8529274939</v>
       </c>
       <c r="C43" t="n">
         <v>16.300238106994</v>
       </c>
       <c r="D43" t="n">
-        <v>-90807.5805352537</v>
+        <v>-68807.0684741327</v>
       </c>
     </row>
     <row r="44">
@@ -7605,13 +7909,13 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>36269.0313260436</v>
+        <v>36406.2572570807</v>
       </c>
       <c r="C44" t="n">
         <v>17.5421545403324</v>
       </c>
       <c r="D44" t="n">
-        <v>-90807.5805352537</v>
+        <v>-68807.0684741327</v>
       </c>
     </row>
     <row r="45">
@@ -7619,13 +7923,13 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>43237.4489146457</v>
+        <v>44566.6159620776</v>
       </c>
       <c r="C45" t="n">
         <v>18.6510086357636</v>
       </c>
       <c r="D45" t="n">
-        <v>-90807.5805352537</v>
+        <v>-68807.0684741327</v>
       </c>
     </row>
     <row r="46">
@@ -7633,13 +7937,13 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>39983.2020166512</v>
+        <v>41016.4505672713</v>
       </c>
       <c r="C46" t="n">
         <v>18.361815043837</v>
       </c>
       <c r="D46" t="n">
-        <v>-103726.586717789</v>
+        <v>-84790.7273209119</v>
       </c>
     </row>
     <row r="47">
@@ -7647,13 +7951,13 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>33329.0179023284</v>
+        <v>33264.043397756</v>
       </c>
       <c r="C47" t="n">
         <v>17.2006632053819</v>
       </c>
       <c r="D47" t="n">
-        <v>-103726.586717789</v>
+        <v>-84790.7273209119</v>
       </c>
     </row>
     <row r="48">
@@ -7661,13 +7965,13 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>36042.1488843771</v>
+        <v>35957.3942440427</v>
       </c>
       <c r="C48" t="n">
         <v>17.7851196072229</v>
       </c>
       <c r="D48" t="n">
-        <v>-103726.586717789</v>
+        <v>-84790.7273209119</v>
       </c>
     </row>
     <row r="49">
@@ -7675,13 +7979,13 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>35879.303968864</v>
+        <v>35001.3161549717</v>
       </c>
       <c r="C49" t="n">
         <v>18.0352823363172</v>
       </c>
       <c r="D49" t="n">
-        <v>-103726.586717789</v>
+        <v>-84790.7273209119</v>
       </c>
     </row>
     <row r="50">
@@ -7689,13 +7993,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>43112.683643027</v>
+        <v>42191.7034361378</v>
       </c>
       <c r="C50" t="n">
         <v>19.9983332810654</v>
       </c>
       <c r="D50" t="n">
-        <v>-112426.459124837</v>
+        <v>-95534.3098909062</v>
       </c>
     </row>
     <row r="51">
@@ -7703,13 +8007,13 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>40005.7113975848</v>
+        <v>38685.7393113734</v>
       </c>
       <c r="C51" t="n">
         <v>19.8484447947693</v>
       </c>
       <c r="D51" t="n">
-        <v>-112426.459124837</v>
+        <v>-95534.3098909062</v>
       </c>
     </row>
     <row r="52">
@@ -7717,13 +8021,13 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>38517.154246387</v>
+        <v>38220.9913267396</v>
       </c>
       <c r="C52" t="n">
         <v>19.9193142906925</v>
       </c>
       <c r="D52" t="n">
-        <v>-112426.459124837</v>
+        <v>-95534.3098909062</v>
       </c>
     </row>
     <row r="53">
@@ -7731,13 +8035,13 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>41245.5575990773</v>
+        <v>43789.0557261022</v>
       </c>
       <c r="C53" t="n">
         <v>20.6523851333131</v>
       </c>
       <c r="D53" t="n">
-        <v>-112426.459124837</v>
+        <v>-95534.3098909062</v>
       </c>
     </row>
     <row r="54">
@@ -7745,13 +8049,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>31879.9990883782</v>
+        <v>36547.8180700825</v>
       </c>
       <c r="C54" t="n">
         <v>20.5110058990967</v>
       </c>
       <c r="D54" t="n">
-        <v>-147967.155430795</v>
+        <v>-139120.0904478</v>
       </c>
     </row>
     <row r="55">
@@ -7759,13 +8063,13 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>32181.5136034961</v>
+        <v>38252.1018763768</v>
       </c>
       <c r="C55" t="n">
         <v>20.2414536890036</v>
       </c>
       <c r="D55" t="n">
-        <v>-147967.155430795</v>
+        <v>-139120.0904478</v>
       </c>
     </row>
     <row r="56">
@@ -7773,13 +8077,13 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>47561.3598885799</v>
+        <v>55067.6279277066</v>
       </c>
       <c r="C56" t="n">
         <v>21.9972618567386</v>
       </c>
       <c r="D56" t="n">
-        <v>-147967.155430795</v>
+        <v>-139120.0904478</v>
       </c>
     </row>
     <row r="57">
@@ -7787,13 +8091,13 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>69808.9843582987</v>
+        <v>51574.1369205392</v>
       </c>
       <c r="C57" t="n">
-        <v>24.3836137539239</v>
+        <v>20.5517764145848</v>
       </c>
       <c r="D57" t="n">
-        <v>-147967.155430795</v>
+        <v>-139120.0904478</v>
       </c>
     </row>
     <row r="58">
@@ -7801,13 +8105,13 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>38296.4718045009</v>
+        <v>40622.4924954321</v>
       </c>
       <c r="C58" t="n">
         <v>17.8294871120887</v>
       </c>
       <c r="D58" t="n">
-        <v>-168944.519522092</v>
+        <v>-140108.412951261</v>
       </c>
     </row>
     <row r="59">
@@ -7815,13 +8119,13 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>34942.4125902003</v>
+        <v>33497.5588679946</v>
       </c>
       <c r="C59" t="n">
         <v>16.337537831675</v>
       </c>
       <c r="D59" t="n">
-        <v>-168944.519522092</v>
+        <v>-140108.412951261</v>
       </c>
     </row>
     <row r="60">
@@ -7829,13 +8133,13 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>45324.0562538566</v>
+        <v>44308.6788955508</v>
       </c>
       <c r="C60" t="n">
         <v>18.1861209559625</v>
       </c>
       <c r="D60" t="n">
-        <v>-168944.519522092</v>
+        <v>-140108.412951261</v>
       </c>
     </row>
     <row r="61">
@@ -7843,13 +8147,13 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>46493.4972778286</v>
+        <v>46636.8923027153</v>
       </c>
       <c r="C61" t="n">
         <v>19.4768244803585</v>
       </c>
       <c r="D61" t="n">
-        <v>-168944.519522092</v>
+        <v>-140108.412951261</v>
       </c>
     </row>
     <row r="62">
@@ -7857,13 +8161,13 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>51764.92467502</v>
+        <v>50330.0326474924</v>
       </c>
       <c r="C62" t="n">
         <v>19.9117759252905</v>
       </c>
       <c r="D62" t="n">
-        <v>-95237.8114698289</v>
+        <v>-78743.7408689492</v>
       </c>
     </row>
     <row r="63">
@@ -7871,13 +8175,13 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>41607.2060041243</v>
+        <v>40674.0307737402</v>
       </c>
       <c r="C63" t="n">
         <v>19.5096031794059</v>
       </c>
       <c r="D63" t="n">
-        <v>-95237.8114698289</v>
+        <v>-78743.7408689492</v>
       </c>
     </row>
     <row r="64">
@@ -7885,13 +8189,13 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>43063.5538193332</v>
+        <v>43322.3687017284</v>
       </c>
       <c r="C64" t="n">
         <v>20.3047333337203</v>
       </c>
       <c r="D64" t="n">
-        <v>-95237.8114698289</v>
+        <v>-78743.7408689492</v>
       </c>
     </row>
     <row r="65">
@@ -7899,13 +8203,13 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>55957.8118182167</v>
+        <v>58072.2450754646</v>
       </c>
       <c r="C65" t="n">
         <v>22.267240788115</v>
       </c>
       <c r="D65" t="n">
-        <v>-95237.8114698289</v>
+        <v>-78743.7408689492</v>
       </c>
     </row>
     <row r="66">
@@ -7913,13 +8217,13 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>58038.2944566079</v>
+        <v>58919.8385471827</v>
       </c>
       <c r="C66" t="n">
         <v>22.7451956072487</v>
       </c>
       <c r="D66" t="n">
-        <v>-127724.618211806</v>
+        <v>-120279.785696171</v>
       </c>
     </row>
     <row r="67">
@@ -7927,13 +8231,13 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>57920.1829347129</v>
+        <v>58088.8752746951</v>
       </c>
       <c r="C67" t="n">
         <v>22.1727590834854</v>
       </c>
       <c r="D67" t="n">
-        <v>-127724.618211806</v>
+        <v>-120279.785696171</v>
       </c>
     </row>
     <row r="68">
@@ -7941,13 +8245,13 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>50108.2768180175</v>
+        <v>48866.5717841138</v>
       </c>
       <c r="C68" t="n">
         <v>20.7446089013393</v>
       </c>
       <c r="D68" t="n">
-        <v>-127724.618211806</v>
+        <v>-120279.785696171</v>
       </c>
     </row>
     <row r="69">
@@ -7955,13 +8259,13 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>58069.9590763002</v>
+        <v>58269.9409339422</v>
       </c>
       <c r="C69" t="n">
         <v>22.4474063888097</v>
       </c>
       <c r="D69" t="n">
-        <v>-127724.618211806</v>
+        <v>-120279.785696171</v>
       </c>
     </row>
     <row r="70">
@@ -7969,13 +8273,13 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>59836.7081806608</v>
+        <v>60133.3361644033</v>
       </c>
       <c r="C70" t="n">
         <v>23.697173383041</v>
       </c>
       <c r="D70" t="n">
-        <v>-131987.875705509</v>
+        <v>-129989.135511947</v>
       </c>
     </row>
     <row r="71">
@@ -7983,13 +8287,13 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>58012.5466490625</v>
+        <v>58370.6888874472</v>
       </c>
       <c r="C71" t="n">
         <v>23.7909819053948</v>
       </c>
       <c r="D71" t="n">
-        <v>-131987.875705509</v>
+        <v>-129989.135511947</v>
       </c>
     </row>
     <row r="72">
@@ -7997,13 +8301,13 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>46034.2241879394</v>
+        <v>44551.794607278</v>
       </c>
       <c r="C72" t="n">
         <v>21.7619159153809</v>
       </c>
       <c r="D72" t="n">
-        <v>-131987.875705509</v>
+        <v>-129989.135511947</v>
       </c>
     </row>
     <row r="73">
@@ -8011,13 +8315,13 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>63980.0001239897</v>
+        <v>64817.0708118732</v>
       </c>
       <c r="C73" t="n">
         <v>24.418508207518</v>
       </c>
       <c r="D73" t="n">
-        <v>-131987.875705509</v>
+        <v>-129989.135511947</v>
       </c>
     </row>
     <row r="74">
@@ -8025,13 +8329,13 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>58433.7276076204</v>
+        <v>57930.6014308657</v>
       </c>
       <c r="C74" t="n">
         <v>23.6932818309947</v>
       </c>
       <c r="D74" t="n">
-        <v>-160981.878768104</v>
+        <v>-163932.394242563</v>
       </c>
     </row>
     <row r="75">
@@ -8039,13 +8343,13 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>54799.9711518977</v>
+        <v>53559.6417130063</v>
       </c>
       <c r="C75" t="n">
         <v>23.1865842158533</v>
       </c>
       <c r="D75" t="n">
-        <v>-160981.878768104</v>
+        <v>-163932.394242563</v>
       </c>
     </row>
     <row r="76">
@@ -8053,13 +8357,13 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>61040.0119347476</v>
+        <v>61129.5318676259</v>
       </c>
       <c r="C76" t="n">
         <v>25.2577942325929</v>
       </c>
       <c r="D76" t="n">
-        <v>-160981.878768104</v>
+        <v>-163932.394242563</v>
       </c>
     </row>
     <row r="77">
@@ -8067,13 +8371,13 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>65118.526672889</v>
+        <v>66784.5094384085</v>
       </c>
       <c r="C77" t="n">
         <v>27.8623397205592</v>
       </c>
       <c r="D77" t="n">
-        <v>-160981.878768104</v>
+        <v>-163932.394242563</v>
       </c>
     </row>
     <row r="78">
@@ -8081,13 +8385,13 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>34606.9079552902</v>
+        <v>33181.180576351</v>
       </c>
       <c r="C78" t="n">
         <v>26.3851917433467</v>
       </c>
       <c r="D78" t="n">
-        <v>-186723.907541732</v>
+        <v>-195311.771642163</v>
       </c>
     </row>
     <row r="79">
@@ -8095,13 +8399,13 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>40264.6699348837</v>
+        <v>38954.9932194362</v>
       </c>
       <c r="C79" t="n">
         <v>27.1759284750954</v>
       </c>
       <c r="D79" t="n">
-        <v>-186723.907541732</v>
+        <v>-195311.771642163</v>
       </c>
     </row>
     <row r="80">
@@ -8109,13 +8413,13 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>74259.2439334872</v>
+        <v>75078.9403765142</v>
       </c>
       <c r="C80" t="n">
         <v>29.7979194213777</v>
       </c>
       <c r="D80" t="n">
-        <v>-186723.907541732</v>
+        <v>-195311.771642163</v>
       </c>
     </row>
     <row r="81">
@@ -8123,13 +8427,13 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>116544.336083843</v>
+        <v>118474.565456387</v>
       </c>
       <c r="C81" t="n">
         <v>30.8456811231635</v>
       </c>
       <c r="D81" t="n">
-        <v>-186723.907541732</v>
+        <v>-195311.771642163</v>
       </c>
     </row>
     <row r="82">
@@ -8137,13 +8441,13 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>143630.714877571</v>
+        <v>142060.345476787</v>
       </c>
       <c r="C82" t="n">
         <v>28.3199367135976</v>
       </c>
       <c r="D82" t="n">
-        <v>-244057.643792647</v>
+        <v>-265293.058621092</v>
       </c>
     </row>
     <row r="83">
@@ -8151,13 +8455,13 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>168430.553594949</v>
+        <v>166758.695053963</v>
       </c>
       <c r="C83" t="n">
         <v>27.291562099305</v>
       </c>
       <c r="D83" t="n">
-        <v>-244057.643792647</v>
+        <v>-265293.058621092</v>
       </c>
     </row>
     <row r="84">
@@ -8165,13 +8469,13 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>180597.27633502</v>
+        <v>180618.678881229</v>
       </c>
       <c r="C84" t="n">
         <v>27.9939672419872</v>
       </c>
       <c r="D84" t="n">
-        <v>-244057.643792647</v>
+        <v>-265293.058621092</v>
       </c>
     </row>
     <row r="85">
@@ -8179,13 +8483,13 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>178355.471846505</v>
+        <v>181596.340516283</v>
       </c>
       <c r="C85" t="n">
         <v>30.1255435904953</v>
       </c>
       <c r="D85" t="n">
-        <v>-244057.643792647</v>
+        <v>-265293.058621092</v>
       </c>
     </row>
     <row r="86">
@@ -8193,13 +8497,13 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>213994.913820338</v>
+        <v>212842.65840573</v>
       </c>
       <c r="C86" t="n">
         <v>28.3958802543955</v>
       </c>
       <c r="D86" t="n">
-        <v>164067.653425051</v>
+        <v>143254.019882576</v>
       </c>
     </row>
     <row r="87">
@@ -8207,13 +8511,13 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>181877.397521274</v>
+        <v>180960.741944301</v>
       </c>
       <c r="C87" t="n">
         <v>27.5791815217975</v>
       </c>
       <c r="D87" t="n">
-        <v>164067.653425051</v>
+        <v>143254.019882576</v>
       </c>
     </row>
     <row r="88">
@@ -8221,13 +8525,13 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>170856.001818562</v>
+        <v>171195.3679124</v>
       </c>
       <c r="C88" t="n">
         <v>28.596445544594</v>
       </c>
       <c r="D88" t="n">
-        <v>164067.653425051</v>
+        <v>143254.019882576</v>
       </c>
     </row>
     <row r="89">
@@ -8235,13 +8539,13 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>175008.193397866</v>
+        <v>176728.172331631</v>
       </c>
       <c r="C89" t="n">
         <v>30.4415467331331</v>
       </c>
       <c r="D89" t="n">
-        <v>164067.653425051</v>
+        <v>143254.019882576</v>
       </c>
     </row>
     <row r="90">
@@ -8249,13 +8553,13 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>187656.699504399</v>
+        <v>186998.96160847</v>
       </c>
       <c r="C90" t="n">
         <v>29.785657601326</v>
       </c>
       <c r="D90" t="n">
-        <v>227258.015381112</v>
+        <v>205302.879519579</v>
       </c>
     </row>
     <row r="91">
@@ -8263,13 +8567,13 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>192690.321461887</v>
+        <v>191805.220397562</v>
       </c>
       <c r="C91" t="n">
         <v>30.0660556110785</v>
       </c>
       <c r="D91" t="n">
-        <v>227258.015381112</v>
+        <v>205302.879519579</v>
       </c>
     </row>
     <row r="92">
@@ -8277,13 +8581,13 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>199008.105949539</v>
+        <v>198519.117779926</v>
       </c>
       <c r="C92" t="n">
         <v>30.6000332292611</v>
       </c>
       <c r="D92" t="n">
-        <v>227258.015381112</v>
+        <v>205302.879519579</v>
       </c>
     </row>
     <row r="93">
@@ -8291,13 +8595,13 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>216442.302042332</v>
+        <v>218460.109360334</v>
       </c>
       <c r="C93" t="n">
         <v>33.0579022756853</v>
       </c>
       <c r="D93" t="n">
-        <v>227258.015381112</v>
+        <v>205302.879519579</v>
       </c>
     </row>
     <row r="94">
@@ -8305,13 +8609,13 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>211336.05745796</v>
+        <v>211247.641599806</v>
       </c>
       <c r="C94" t="n">
         <v>31.581418485133</v>
       </c>
       <c r="D94" t="n">
-        <v>231306.203856629</v>
+        <v>201785.899075961</v>
       </c>
     </row>
     <row r="95">
@@ -8319,13 +8623,13 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>214882.20543719</v>
+        <v>215554.400164082</v>
       </c>
       <c r="C95" t="n">
         <v>31.8325085481025</v>
       </c>
       <c r="D95" t="n">
-        <v>231306.203856629</v>
+        <v>201785.899075961</v>
       </c>
     </row>
     <row r="96">
@@ -8333,13 +8637,13 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>207720.42949294</v>
+        <v>207458.833010384</v>
       </c>
       <c r="C96" t="n">
         <v>30.3816372911632</v>
       </c>
       <c r="D96" t="n">
-        <v>231306.203856629</v>
+        <v>201785.899075961</v>
       </c>
     </row>
     <row r="97">
@@ -8347,13 +8651,13 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>206736.528986858</v>
+        <v>206400.852082336</v>
       </c>
       <c r="C97" t="n">
         <v>30.0973803622318</v>
       </c>
       <c r="D97" t="n">
-        <v>231306.203856629</v>
+        <v>201785.899075961</v>
       </c>
     </row>
     <row r="98">
@@ -8361,13 +8665,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>196704.274503425</v>
+        <v>188827.331519069</v>
       </c>
       <c r="C98" t="n">
-        <v>30.8061769716851</v>
+        <v>29.5431946867292</v>
       </c>
       <c r="D98" t="n">
-        <v>273927.878826631</v>
+        <v>63818.0456519345</v>
       </c>
     </row>
     <row r="99">
@@ -8375,13 +8679,13 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>201178.079713968</v>
+        <v>188599.231722244</v>
       </c>
       <c r="C99" t="n">
-        <v>31.5661912538418</v>
+        <v>29.6374392135226</v>
       </c>
       <c r="D99" t="n">
-        <v>273927.878826631</v>
+        <v>62697.4570202366</v>
       </c>
     </row>
     <row r="100">
@@ -8389,13 +8693,13 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>202499.779551335</v>
+        <v>183175.184487595</v>
       </c>
       <c r="C100" t="n">
-        <v>31.7907228786779</v>
+        <v>29.0928669854093</v>
       </c>
       <c r="D100" t="n">
-        <v>273927.878826631</v>
+        <v>60456.2797568408</v>
       </c>
     </row>
     <row r="101">
@@ -8403,13 +8707,13 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>208231.532310445</v>
+        <v>179851.795982508</v>
       </c>
       <c r="C101" t="n">
-        <v>32.7644384862435</v>
+        <v>28.986173556613</v>
       </c>
       <c r="D101" t="n">
-        <v>273927.878826631</v>
+        <v>57094.5138617472</v>
       </c>
     </row>
     <row r="102">
@@ -8417,13 +8721,13 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>206101.717621456</v>
+        <v>174975.026591433</v>
       </c>
       <c r="C102" t="n">
-        <v>32.4026235421857</v>
+        <v>28.7781646608179</v>
       </c>
       <c r="D102" t="n">
-        <v>273927.878826631</v>
+        <v>52612.1593349556</v>
       </c>
     </row>
     <row r="103">
@@ -8431,13 +8735,13 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>206924.679967606</v>
+        <v>172152.324590624</v>
       </c>
       <c r="C103" t="n">
-        <v>32.5424291678927</v>
+        <v>28.8135385450946</v>
       </c>
       <c r="D103" t="n">
-        <v>273927.878826631</v>
+        <v>48653.0054758328</v>
       </c>
     </row>
     <row r="104">
@@ -8445,13 +8749,13 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>208246.782024382</v>
+        <v>168109.405024865</v>
       </c>
       <c r="C104" t="n">
-        <v>32.7670291221442</v>
+        <v>28.6091379752895</v>
       </c>
       <c r="D104" t="n">
-        <v>273927.878826631</v>
+        <v>45217.0522843788</v>
       </c>
     </row>
     <row r="105">
@@ -8459,13 +8763,13 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>213558.954229092</v>
+        <v>165584.987170062</v>
       </c>
       <c r="C105" t="n">
-        <v>33.6694659862574</v>
+        <v>28.569091501168</v>
       </c>
       <c r="D105" t="n">
-        <v>273927.878826631</v>
+        <v>42304.2997605936</v>
       </c>
     </row>
     <row r="106">
@@ -8473,13 +8777,13 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>211758.240001992</v>
+        <v>163207.558229655</v>
       </c>
       <c r="C106" t="n">
-        <v>33.363558941522</v>
+        <v>28.4910171252998</v>
       </c>
       <c r="D106" t="n">
-        <v>273927.878826631</v>
+        <v>39914.7479044771</v>
       </c>
     </row>
     <row r="107">
@@ -8487,13 +8791,13 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>212629.100858112</v>
+        <v>161503.788115016</v>
       </c>
       <c r="C107" t="n">
-        <v>33.511501611637</v>
+        <v>28.5042944129196</v>
       </c>
       <c r="D107" t="n">
-        <v>273927.878826631</v>
+        <v>37595.7607364597</v>
       </c>
     </row>
     <row r="108">
@@ -8501,13 +8805,13 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>213951.566829716</v>
+        <v>159244.701722386</v>
       </c>
       <c r="C108" t="n">
-        <v>33.7361633880857</v>
+        <v>28.4275743916261</v>
       </c>
       <c r="D108" t="n">
-        <v>273927.878826631</v>
+        <v>35347.3382565414</v>
       </c>
     </row>
     <row r="109">
@@ -8515,13 +8819,13 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>218884.116414365</v>
+        <v>157458.25411747</v>
       </c>
       <c r="C109" t="n">
-        <v>34.5741096006174</v>
+        <v>28.412543287015</v>
       </c>
       <c r="D109" t="n">
-        <v>273927.878826631</v>
+        <v>33169.4804647221</v>
       </c>
     </row>
     <row r="110">
@@ -8529,13 +8833,13 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>217381.161409648</v>
+        <v>155629.659597582</v>
       </c>
       <c r="C110" t="n">
-        <v>34.3187861756431</v>
+        <v>28.3832387318232</v>
       </c>
       <c r="D110" t="n">
-        <v>273927.878826631</v>
+        <v>31062.1873610018</v>
       </c>
     </row>
     <row r="111">
@@ -8543,13 +8847,13 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>218295.359254724</v>
+        <v>154137.689990297</v>
       </c>
       <c r="C111" t="n">
-        <v>34.4740909746399</v>
+        <v>28.3882222491876</v>
       </c>
       <c r="D111" t="n">
-        <v>273927.878826631</v>
+        <v>29089.6829380836</v>
       </c>
     </row>
     <row r="112">
@@ -8557,13 +8861,13 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>219618.154484439</v>
+        <v>152521.059907713</v>
       </c>
       <c r="C112" t="n">
-        <v>34.6988086857695</v>
+        <v>28.3594260395054</v>
       </c>
       <c r="D112" t="n">
-        <v>273927.878826631</v>
+        <v>27251.9671959674</v>
       </c>
     </row>
     <row r="113">
@@ -8571,13 +8875,13 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>224207.234067556</v>
+        <v>151165.603570374</v>
       </c>
       <c r="C113" t="n">
-        <v>35.4784058879236</v>
+        <v>28.3537842417994</v>
       </c>
       <c r="D113" t="n">
-        <v>273927.878826631</v>
+        <v>25549.0401346534</v>
       </c>
     </row>
     <row r="114">
@@ -8585,13 +8889,13 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>222973.68176743</v>
+        <v>149878.100528313</v>
       </c>
       <c r="C114" t="n">
-        <v>35.2688488505109</v>
+        <v>28.3427850254056</v>
       </c>
       <c r="D114" t="n">
-        <v>273927.878826631</v>
+        <v>23980.9017541415</v>
       </c>
     </row>
     <row r="115">
@@ -8599,13 +8903,13 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>223927.089487988</v>
+        <v>148743.9365942</v>
       </c>
       <c r="C115" t="n">
-        <v>35.4308146604293</v>
+        <v>28.344655546406</v>
       </c>
       <c r="D115" t="n">
-        <v>273927.878826631</v>
+        <v>22498.2480177414</v>
       </c>
     </row>
     <row r="116">
@@ -8613,13 +8917,13 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>225250.182619562</v>
+        <v>147589.97220773</v>
       </c>
       <c r="C116" t="n">
-        <v>35.6555829794098</v>
+        <v>28.3338471331902</v>
       </c>
       <c r="D116" t="n">
-        <v>273927.878826631</v>
+        <v>21101.0789254534</v>
       </c>
     </row>
     <row r="117">
@@ -8627,13 +8931,237 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>229528.501895683</v>
+        <v>146561.026973095</v>
       </c>
       <c r="C117" t="n">
-        <v>36.3823879251896</v>
+        <v>28.3317295322435</v>
       </c>
       <c r="D117" t="n">
-        <v>273927.878826631</v>
+        <v>19789.3944772772</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>145584.577232215</v>
+      </c>
+      <c r="C118" t="n">
+        <v>28.3276010696039</v>
+      </c>
+      <c r="D118" t="n">
+        <v>18563.194673213</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>144693.869091065</v>
+      </c>
+      <c r="C119" t="n">
+        <v>28.3283031538061</v>
+      </c>
+      <c r="D119" t="n">
+        <v>17405.5215047221</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>143823.916083287</v>
+      </c>
+      <c r="C120" t="n">
+        <v>28.3242463075221</v>
+      </c>
+      <c r="D120" t="n">
+        <v>16316.3749718043</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>143029.075019764</v>
+      </c>
+      <c r="C121" t="n">
+        <v>28.3234514839564</v>
+      </c>
+      <c r="D121" t="n">
+        <v>15295.7550744598</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>142282.124760175</v>
+      </c>
+      <c r="C122" t="n">
+        <v>28.3219019004992</v>
+      </c>
+      <c r="D122" t="n">
+        <v>14343.6618126885</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>141594.803193404</v>
+      </c>
+      <c r="C123" t="n">
+        <v>28.3221654218533</v>
+      </c>
+      <c r="D123" t="n">
+        <v>13452.7724813102</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>140942.718200157</v>
+      </c>
+      <c r="C124" t="n">
+        <v>28.3206427189881</v>
+      </c>
+      <c r="D124" t="n">
+        <v>12623.0870803249</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>140346.272148647</v>
+      </c>
+      <c r="C125" t="n">
+        <v>28.3203443887</v>
+      </c>
+      <c r="D125" t="n">
+        <v>11854.6056097325</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>139795.247814592</v>
+      </c>
+      <c r="C126" t="n">
+        <v>28.3197627656842</v>
+      </c>
+      <c r="D126" t="n">
+        <v>11147.3280695331</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>139255.692868866</v>
+      </c>
+      <c r="C127" t="n">
+        <v>28.3198616761908</v>
+      </c>
+      <c r="D127" t="n">
+        <v>10448.9160349628</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>138718.451936246</v>
+      </c>
+      <c r="C128" t="n">
+        <v>28.3192901425774</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9759.36950602171</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>138191.182872704</v>
+      </c>
+      <c r="C129" t="n">
+        <v>28.3191781668325</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9078.68848270978</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>137670.050729712</v>
+      </c>
+      <c r="C130" t="n">
+        <v>28.3189598595636</v>
+      </c>
+      <c r="D130" t="n">
+        <v>8406.87296502701</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>137280.562791582</v>
+      </c>
+      <c r="C131" t="n">
+        <v>28.3189969847838</v>
+      </c>
+      <c r="D131" t="n">
+        <v>7903.01132676494</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>137019.282665831</v>
+      </c>
+      <c r="C132" t="n">
+        <v>28.3187824644866</v>
+      </c>
+      <c r="D132" t="n">
+        <v>7567.10356792355</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>136889.084663786</v>
+      </c>
+      <c r="C133" t="n">
+        <v>28.3187404353399</v>
+      </c>
+      <c r="D133" t="n">
+        <v>7399.14968850286</v>
       </c>
     </row>
   </sheetData>
@@ -8655,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -8663,7 +9191,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>19880.845533069</v>
+        <v>19993.003090287</v>
       </c>
     </row>
     <row r="3">
@@ -8671,7 +9199,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>23505.5278967257</v>
+        <v>23774.7264613703</v>
       </c>
     </row>
     <row r="4">
@@ -8679,7 +9207,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>25269.2858327597</v>
+        <v>25022.8243890762</v>
       </c>
     </row>
     <row r="5">
@@ -8687,7 +9215,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>33766.2275236044</v>
+        <v>33631.3328454254</v>
       </c>
     </row>
     <row r="6">
@@ -8695,7 +9223,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30444.9586277968</v>
+        <v>32290.6298045796</v>
       </c>
     </row>
     <row r="7">
@@ -8703,7 +9231,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>30075.8015295181</v>
+        <v>30716.9155472675</v>
       </c>
     </row>
     <row r="8">
@@ -8711,7 +9239,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>25592.8273718718</v>
+        <v>24823.3023031939</v>
       </c>
     </row>
     <row r="9">
@@ -8719,7 +9247,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>21399.5796812884</v>
+        <v>19679.4048747319</v>
       </c>
     </row>
     <row r="10">
@@ -8727,7 +9255,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>27679.6061236615</v>
+        <v>26814.4478328184</v>
       </c>
     </row>
     <row r="11">
@@ -8735,7 +9263,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>30335.9421049164</v>
+        <v>30002.3966328121</v>
       </c>
     </row>
     <row r="12">
@@ -8743,7 +9271,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>30459.9289905766</v>
+        <v>30305.0004204775</v>
       </c>
     </row>
     <row r="13">
@@ -8751,7 +9279,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>39157.0251813274</v>
+        <v>40507.5072482827</v>
       </c>
     </row>
     <row r="14">
@@ -8759,7 +9287,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>39003.0973323537</v>
+        <v>40394.7942635931</v>
       </c>
     </row>
     <row r="15">
@@ -8767,7 +9295,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>43110.2027228608</v>
+        <v>45207.8195975839</v>
       </c>
     </row>
     <row r="16">
@@ -8775,7 +9303,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>19913.8235703929</v>
+        <v>18452.2294042073</v>
       </c>
     </row>
     <row r="17">
@@ -8783,7 +9311,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>17400.9581795719</v>
+        <v>15373.4403499291</v>
       </c>
     </row>
     <row r="18">
@@ -8791,7 +9319,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>37635.2407421233</v>
+        <v>38641.5815881064</v>
       </c>
     </row>
     <row r="19">
@@ -8799,7 +9327,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>34412.5099877478</v>
+        <v>34706.4279701726</v>
       </c>
     </row>
     <row r="20">
@@ -8807,7 +9335,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>27701.4470934954</v>
+        <v>26851.4375944965</v>
       </c>
     </row>
     <row r="21">
@@ -8815,7 +9343,7 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>30563.4362414694</v>
+        <v>30113.6337564402</v>
       </c>
     </row>
     <row r="22">
@@ -8823,7 +9351,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>31756.7218267835</v>
+        <v>31257.2668238474</v>
       </c>
     </row>
     <row r="23">
@@ -8831,7 +9359,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>34500.1065474812</v>
+        <v>34544.0500657327</v>
       </c>
     </row>
     <row r="24">
@@ -8839,7 +9367,7 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>34623.8911429985</v>
+        <v>34879.9954360815</v>
       </c>
     </row>
     <row r="25">
@@ -8847,7 +9375,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>32545.7579422023</v>
+        <v>32745.9630659234</v>
       </c>
     </row>
     <row r="26">
@@ -8855,7 +9383,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>26874.1360231449</v>
+        <v>26645.998971821</v>
       </c>
     </row>
     <row r="27">
@@ -8863,7 +9391,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>27728.9267985344</v>
+        <v>27723.0929491571</v>
       </c>
     </row>
     <row r="28">
@@ -8871,7 +9399,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>29279.7367617217</v>
+        <v>29371.0609133394</v>
       </c>
     </row>
     <row r="29">
@@ -8879,7 +9407,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>32065.6123362944</v>
+        <v>32210.4843828163</v>
       </c>
     </row>
     <row r="30">
@@ -8887,7 +9415,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>36704.5804602872</v>
+        <v>37538.250115497</v>
       </c>
     </row>
     <row r="31">
@@ -8895,7 +9423,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>28905.1054071073</v>
+        <v>28182.1548170685</v>
       </c>
     </row>
     <row r="32">
@@ -8903,7 +9431,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>30444.4944761275</v>
+        <v>29798.87646439</v>
       </c>
     </row>
     <row r="33">
@@ -8911,7 +9439,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>37829.9628880842</v>
+        <v>38367.3185672874</v>
       </c>
     </row>
     <row r="34">
@@ -8919,7 +9447,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>35354.6789850148</v>
+        <v>35340.6844892791</v>
       </c>
     </row>
     <row r="35">
@@ -8927,7 +9455,7 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>30372.6126460615</v>
+        <v>29815.5928248601</v>
       </c>
     </row>
     <row r="36">
@@ -8935,7 +9463,7 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>32785.3768790212</v>
+        <v>32727.1742454247</v>
       </c>
     </row>
     <row r="37">
@@ -8943,7 +9471,7 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>36972.9851334023</v>
+        <v>37605.3741609582</v>
       </c>
     </row>
     <row r="38">
@@ -8951,7 +9479,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>31138.2551024637</v>
+        <v>30951.7307328889</v>
       </c>
     </row>
     <row r="39">
@@ -8959,7 +9487,7 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>31549.1320529431</v>
+        <v>31363.0055325216</v>
       </c>
     </row>
     <row r="40">
@@ -8967,7 +9495,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>31809.7168760598</v>
+        <v>31559.0073226396</v>
       </c>
     </row>
     <row r="41">
@@ -8975,7 +9503,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>38582.3967742008</v>
+        <v>39209.8628040778</v>
       </c>
     </row>
     <row r="42">
@@ -8983,7 +9511,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>31749.9441383235</v>
+        <v>31254.2043828357</v>
       </c>
     </row>
     <row r="43">
@@ -8991,7 +9519,7 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>29165.2419685893</v>
+        <v>28198.8529274939</v>
       </c>
     </row>
     <row r="44">
@@ -8999,7 +9527,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>36269.0313260436</v>
+        <v>36406.2572570807</v>
       </c>
     </row>
     <row r="45">
@@ -9007,7 +9535,7 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>43237.4489146457</v>
+        <v>44566.6159620776</v>
       </c>
     </row>
     <row r="46">
@@ -9015,7 +9543,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>39983.2020166512</v>
+        <v>41016.4505672713</v>
       </c>
     </row>
     <row r="47">
@@ -9023,7 +9551,7 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>33329.0179023284</v>
+        <v>33264.043397756</v>
       </c>
     </row>
     <row r="48">
@@ -9031,7 +9559,7 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>36042.1488843771</v>
+        <v>35957.3942440427</v>
       </c>
     </row>
     <row r="49">
@@ -9039,7 +9567,7 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>35879.303968864</v>
+        <v>35001.3161549717</v>
       </c>
     </row>
     <row r="50">
@@ -9047,7 +9575,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>43112.683643027</v>
+        <v>42191.7034361378</v>
       </c>
     </row>
     <row r="51">
@@ -9055,7 +9583,7 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>40005.7113975848</v>
+        <v>38685.7393113734</v>
       </c>
     </row>
     <row r="52">
@@ -9063,7 +9591,7 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>38517.154246387</v>
+        <v>38220.9913267396</v>
       </c>
     </row>
     <row r="53">
@@ -9071,7 +9599,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>41245.5575990773</v>
+        <v>43789.0557261022</v>
       </c>
     </row>
     <row r="54">
@@ -9079,7 +9607,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>31879.9990883782</v>
+        <v>36547.8180700825</v>
       </c>
     </row>
     <row r="55">
@@ -9087,7 +9615,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>32181.5136034961</v>
+        <v>38252.1018763768</v>
       </c>
     </row>
     <row r="56">
@@ -9095,7 +9623,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>47561.3598885799</v>
+        <v>55067.6279277066</v>
       </c>
     </row>
     <row r="57">
@@ -9103,7 +9631,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>69808.9843582987</v>
+        <v>51574.1369205392</v>
       </c>
     </row>
     <row r="58">
@@ -9111,7 +9639,7 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>38296.4718045009</v>
+        <v>40622.4924954321</v>
       </c>
     </row>
     <row r="59">
@@ -9119,7 +9647,7 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>34942.4125902003</v>
+        <v>33497.5588679946</v>
       </c>
     </row>
     <row r="60">
@@ -9127,7 +9655,7 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>45324.0562538566</v>
+        <v>44308.6788955508</v>
       </c>
     </row>
     <row r="61">
@@ -9135,7 +9663,7 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>46493.4972778286</v>
+        <v>46636.8923027153</v>
       </c>
     </row>
     <row r="62">
@@ -9143,7 +9671,7 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>51764.92467502</v>
+        <v>50330.0326474924</v>
       </c>
     </row>
     <row r="63">
@@ -9151,7 +9679,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>41607.2060041243</v>
+        <v>40674.0307737402</v>
       </c>
     </row>
     <row r="64">
@@ -9159,7 +9687,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>43063.5538193332</v>
+        <v>43322.3687017284</v>
       </c>
     </row>
     <row r="65">
@@ -9167,7 +9695,7 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>55957.8118182167</v>
+        <v>58072.2450754646</v>
       </c>
     </row>
     <row r="66">
@@ -9175,7 +9703,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>58038.2944566079</v>
+        <v>58919.8385471827</v>
       </c>
     </row>
     <row r="67">
@@ -9183,7 +9711,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>57920.1829347129</v>
+        <v>58088.8752746951</v>
       </c>
     </row>
     <row r="68">
@@ -9191,7 +9719,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>50108.2768180175</v>
+        <v>48866.5717841138</v>
       </c>
     </row>
     <row r="69">
@@ -9199,7 +9727,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>58069.9590763002</v>
+        <v>58269.9409339422</v>
       </c>
     </row>
     <row r="70">
@@ -9207,7 +9735,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>59836.7081806608</v>
+        <v>60133.3361644033</v>
       </c>
     </row>
     <row r="71">
@@ -9215,7 +9743,7 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>58012.5466490625</v>
+        <v>58370.6888874472</v>
       </c>
     </row>
     <row r="72">
@@ -9223,7 +9751,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>46034.2241879394</v>
+        <v>44551.794607278</v>
       </c>
     </row>
     <row r="73">
@@ -9231,7 +9759,7 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>63980.0001239897</v>
+        <v>64817.0708118732</v>
       </c>
     </row>
     <row r="74">
@@ -9239,7 +9767,7 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>58433.7276076204</v>
+        <v>57930.6014308657</v>
       </c>
     </row>
     <row r="75">
@@ -9247,7 +9775,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>54799.9711518977</v>
+        <v>53559.6417130063</v>
       </c>
     </row>
     <row r="76">
@@ -9255,7 +9783,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>61040.0119347476</v>
+        <v>61129.5318676259</v>
       </c>
     </row>
     <row r="77">
@@ -9263,7 +9791,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>65118.526672889</v>
+        <v>66784.5094384085</v>
       </c>
     </row>
     <row r="78">
@@ -9271,7 +9799,7 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>34606.9079552902</v>
+        <v>33181.180576351</v>
       </c>
     </row>
     <row r="79">
@@ -9279,7 +9807,7 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>40264.6699348837</v>
+        <v>38954.9932194362</v>
       </c>
     </row>
     <row r="80">
@@ -9287,7 +9815,7 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>74259.2439334872</v>
+        <v>75078.9403765142</v>
       </c>
     </row>
     <row r="81">
@@ -9295,7 +9823,7 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>116544.336083843</v>
+        <v>118474.565456387</v>
       </c>
     </row>
     <row r="82">
@@ -9303,7 +9831,7 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>143630.714877571</v>
+        <v>142060.345476787</v>
       </c>
     </row>
     <row r="83">
@@ -9311,7 +9839,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>168430.553594949</v>
+        <v>166758.695053963</v>
       </c>
     </row>
     <row r="84">
@@ -9319,7 +9847,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>180597.27633502</v>
+        <v>180618.678881229</v>
       </c>
     </row>
     <row r="85">
@@ -9327,7 +9855,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>178355.471846505</v>
+        <v>181596.340516283</v>
       </c>
     </row>
     <row r="86">
@@ -9335,7 +9863,7 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>213994.913820338</v>
+        <v>212842.65840573</v>
       </c>
     </row>
     <row r="87">
@@ -9343,7 +9871,7 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>181877.397521274</v>
+        <v>180960.741944301</v>
       </c>
     </row>
     <row r="88">
@@ -9351,7 +9879,7 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>170856.001818562</v>
+        <v>171195.3679124</v>
       </c>
     </row>
     <row r="89">
@@ -9359,7 +9887,7 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>175008.193397866</v>
+        <v>176728.172331631</v>
       </c>
     </row>
     <row r="90">
@@ -9367,7 +9895,7 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>187656.699504399</v>
+        <v>186998.96160847</v>
       </c>
     </row>
     <row r="91">
@@ -9375,7 +9903,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>192690.321461887</v>
+        <v>191805.220397562</v>
       </c>
     </row>
     <row r="92">
@@ -9383,7 +9911,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>199008.105949539</v>
+        <v>198519.117779926</v>
       </c>
     </row>
     <row r="93">
@@ -9391,7 +9919,7 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>216442.302042332</v>
+        <v>218460.109360334</v>
       </c>
     </row>
     <row r="94">
@@ -9399,7 +9927,7 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>211336.05745796</v>
+        <v>211247.641599806</v>
       </c>
     </row>
     <row r="95">
@@ -9407,7 +9935,7 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>214882.20543719</v>
+        <v>215554.400164082</v>
       </c>
     </row>
     <row r="96">
@@ -9415,7 +9943,7 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>207720.42949294</v>
+        <v>207458.833010384</v>
       </c>
     </row>
     <row r="97">
@@ -9423,7 +9951,7 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>206736.528986858</v>
+        <v>206400.852082336</v>
       </c>
     </row>
     <row r="98">
@@ -9431,7 +9959,7 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>196704.274503425</v>
+        <v>188827.331519069</v>
       </c>
     </row>
     <row r="99">
@@ -9439,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>201178.079713968</v>
+        <v>188599.231722244</v>
       </c>
     </row>
     <row r="100">
@@ -9447,7 +9975,7 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>202499.779551335</v>
+        <v>183175.184487595</v>
       </c>
     </row>
     <row r="101">
@@ -9455,7 +9983,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>208231.532310445</v>
+        <v>179851.795982508</v>
       </c>
     </row>
     <row r="102">
@@ -9463,7 +9991,7 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>206101.717621456</v>
+        <v>174975.026591433</v>
       </c>
     </row>
     <row r="103">
@@ -9471,7 +9999,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>206924.679967606</v>
+        <v>172152.324590624</v>
       </c>
     </row>
     <row r="104">
@@ -9479,7 +10007,7 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>208246.782024382</v>
+        <v>168109.405024865</v>
       </c>
     </row>
     <row r="105">
@@ -9487,7 +10015,7 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>213558.954229092</v>
+        <v>165584.987170062</v>
       </c>
     </row>
     <row r="106">
@@ -9495,7 +10023,7 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>211758.240001992</v>
+        <v>163207.558229655</v>
       </c>
     </row>
     <row r="107">
@@ -9503,7 +10031,7 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>212629.100858112</v>
+        <v>161503.788115016</v>
       </c>
     </row>
     <row r="108">
@@ -9511,7 +10039,7 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>213951.566829716</v>
+        <v>159244.701722386</v>
       </c>
     </row>
     <row r="109">
@@ -9519,7 +10047,7 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>218884.116414365</v>
+        <v>157458.25411747</v>
       </c>
     </row>
     <row r="110">
@@ -9527,7 +10055,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>217381.161409648</v>
+        <v>155629.659597582</v>
       </c>
     </row>
     <row r="111">
@@ -9535,7 +10063,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>218295.359254724</v>
+        <v>154137.689990297</v>
       </c>
     </row>
     <row r="112">
@@ -9543,7 +10071,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>219618.154484439</v>
+        <v>152521.059907713</v>
       </c>
     </row>
     <row r="113">
@@ -9551,7 +10079,7 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>224207.234067556</v>
+        <v>151165.603570374</v>
       </c>
     </row>
     <row r="114">
@@ -9559,7 +10087,7 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>222973.68176743</v>
+        <v>149878.100528313</v>
       </c>
     </row>
     <row r="115">
@@ -9567,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>223927.089487988</v>
+        <v>148743.9365942</v>
       </c>
     </row>
     <row r="116">
@@ -9575,7 +10103,7 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>225250.182619562</v>
+        <v>147589.97220773</v>
       </c>
     </row>
     <row r="117">
@@ -9583,7 +10111,135 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>229528.501895683</v>
+        <v>146561.026973095</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>145584.577232215</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>144693.869091065</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>143823.916083287</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>143029.075019764</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>142282.124760175</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>141594.803193404</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>140942.718200157</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>140346.272148647</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>139795.247814592</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>139255.692868866</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>138718.451936246</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>138191.182872704</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>137670.050729712</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>137280.562791582</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>137019.282665831</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>136889.084663786</v>
       </c>
     </row>
   </sheetData>
